--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="261">
   <si>
     <t>Asignatura</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Las gráficas de las funciones afines y lineales</t>
   </si>
   <si>
-    <t>Interactivo que muestra representaciones de funciones lineales y afines</t>
-  </si>
-  <si>
     <t>Actividad para practicar la representación de funciones lineales y afines</t>
   </si>
   <si>
@@ -579,9 +576,6 @@
     <t>Interactivo para entender cómo se define la ecuación de la recta que pasa por dos puntos</t>
   </si>
   <si>
-    <t>Practica la ecuación de la recta</t>
-  </si>
-  <si>
     <t>Actividad para identificar funciones lineales y su representación gráfica</t>
   </si>
   <si>
@@ -831,9 +825,6 @@
     <t>Actividad para repasar lo aprendido acerca de  las funciones lineales</t>
   </si>
   <si>
-    <t>Actividad para clasificar funciones afines según ciertas condiciones</t>
-  </si>
-  <si>
     <t>Actividad para clasificar funciones según sean lineales, afines o proporcionales</t>
   </si>
   <si>
@@ -849,9 +840,6 @@
     <t>quitar las coincidentes</t>
   </si>
   <si>
-    <t>Identifica las características de rectas perpendiculares y paralelas</t>
-  </si>
-  <si>
     <t>Actividad para repasar las características de rectas paralelas y perpendiculares</t>
   </si>
   <si>
@@ -894,7 +882,37 @@
     <t>Interactivos</t>
   </si>
   <si>
-    <t>Cambios se deben pedir a Pedro</t>
+    <t>Interactivo para aprender a representar gráficamente las funciones lineales y las funciones afines</t>
+  </si>
+  <si>
+    <t>No necesita</t>
+  </si>
+  <si>
+    <t>Confirmar necesidad de cambiar los ejes para que queden en letra cursiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviado a Pedro para arreglar </t>
+  </si>
+  <si>
+    <t>Enviado a Pedro para poner la k en cursiva</t>
+  </si>
+  <si>
+    <t>Actividad que permite clasificar distintos tipos de funciones</t>
+  </si>
+  <si>
+    <t>Josué 25</t>
+  </si>
+  <si>
+    <t>Pedro ya realizo los cambios</t>
+  </si>
+  <si>
+    <t>NO necesita</t>
+  </si>
+  <si>
+    <t>Pedro ya arreglo</t>
+  </si>
+  <si>
+    <t>Identifica los distintos tipos de rectas</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1239,40 +1257,28 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,35 +1320,68 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,11 +1687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y286"/>
+  <dimension ref="A1:AB286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,109 +1717,111 @@
     <col min="20" max="20" width="56.5703125" style="11" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:28" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="W1" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="X1" s="63" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="V1" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="X1" s="80" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="9" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="41"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1791,60 +1832,60 @@
         <v>123</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="69">
         <v>1</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72" t="s">
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="73">
+      <c r="Q3" s="71">
         <v>10</v>
       </c>
-      <c r="R3" s="73" t="s">
+      <c r="R3" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="S3" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T3" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="U3" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="T3" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="U3" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="V3" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="W3" s="69">
+      <c r="V3" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W3" s="73">
         <v>42394</v>
       </c>
-      <c r="X3" s="67">
+      <c r="X3" s="81">
         <v>42394</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>20</v>
@@ -1891,19 +1932,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="U4" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -1928,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>20</v>
@@ -1946,19 +1987,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
@@ -2005,19 +2046,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="U6" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="T6" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
@@ -2064,19 +2105,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="U7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="T7" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -2094,7 +2135,7 @@
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H8" s="20">
         <v>6</v>
@@ -2103,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>20</v>
@@ -2125,19 +2166,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S8" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="U8" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="T8" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
@@ -2152,55 +2193,58 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="75">
         <v>7</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="K9" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="P9" s="20" t="s">
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="77">
         <v>10</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="S9" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="V9" s="66" t="s">
-        <v>249</v>
+      <c r="V9" s="79" t="s">
+        <v>245</v>
       </c>
       <c r="Y9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="AB9" s="67">
+        <v>42547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2215,52 +2259,58 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="77">
         <v>8</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="5" t="s">
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="77">
         <v>10</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T10" s="23" t="s">
+      <c r="R10" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="T10" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V10" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U10" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="V10" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB10" s="67">
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2275,50 +2325,56 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="69">
         <v>9</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="13" t="s">
+      <c r="J11" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="12" t="s">
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="71">
         <v>10</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="S11" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T11" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="U11" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="V11" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V11" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W11" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2333,50 +2389,59 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="71">
         <v>10</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="12" t="s">
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="71">
         <v>10</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T12" s="23" t="s">
+      <c r="R12" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S12" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T12" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V12" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U12" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="V12" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W12" s="73">
+        <v>42761</v>
+      </c>
+      <c r="X12" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2391,50 +2456,59 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="75">
         <v>11</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="12" t="s">
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="77">
         <v>10</v>
       </c>
-      <c r="R13" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V13" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R13" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="S13" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="U13" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="V13" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W13" t="s">
+        <v>251</v>
+      </c>
+      <c r="X13" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2449,50 +2523,56 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="G14" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="71">
         <v>12</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="12" t="s">
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="71">
         <v>10</v>
       </c>
-      <c r="R14" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V14" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T14" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W14" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2507,50 +2587,56 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="69">
         <v>13</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K15" s="13" t="s">
+      <c r="J15" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="12" t="s">
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="71">
         <v>10</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="S15" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T15" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="V15" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V15" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W15" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2565,50 +2651,56 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="71">
+        <v>14</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="12">
-        <v>14</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="K16" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="71">
         <v>10</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T16" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V16" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R16" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="S16" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="U16" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W16" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2623,50 +2715,56 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="G17" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="69">
         <v>15</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="13" t="s">
+      <c r="J17" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="12" t="s">
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="71">
         <v>10</v>
       </c>
-      <c r="R17" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T17" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V17" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="S17" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T17" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="U17" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="V17" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W17" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -2681,50 +2779,59 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="77">
+        <v>16</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="12">
-        <v>16</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="12" t="s">
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="77">
         <v>10</v>
       </c>
-      <c r="R18" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V18" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R18" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="S18" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="T18" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="U18" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W18" t="s">
+        <v>251</v>
+      </c>
+      <c r="X18" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -2739,50 +2846,59 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="75">
         <v>17</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K19" s="13" t="s">
+      <c r="J19" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="12" t="s">
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="77">
         <v>10</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T19" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V19" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R19" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="S19" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="T19" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="U19" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W19" t="s">
+        <v>251</v>
+      </c>
+      <c r="X19" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -2797,50 +2913,56 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="12">
+      <c r="G20" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="71">
         <v>18</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K20" s="13" t="s">
+      <c r="J20" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="12" t="s">
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="71">
         <v>10</v>
       </c>
-      <c r="R20" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T20" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="U20" s="12" t="s">
+      <c r="R20" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T20" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="V20" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U20" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="V20" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W20" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -2855,50 +2977,56 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="69">
         <v>19</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="K21" s="13" t="s">
+      <c r="J21" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="K21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="12" t="s">
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="71">
         <v>10</v>
       </c>
-      <c r="R21" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T21" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V21" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R21" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="S21" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T21" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="U21" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="V21" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W21" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -2913,52 +3041,58 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="12">
+      <c r="G22" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="71">
         <v>20</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" s="13" t="s">
+      <c r="J22" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="P22" s="12" t="s">
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="P22" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="71">
         <v>10</v>
       </c>
-      <c r="R22" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T22" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="U22" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V22" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="S22" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T22" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="U22" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="V22" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="W22" s="73">
+        <v>42395</v>
+      </c>
+      <c r="X22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +3108,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -2983,7 +3117,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>19</v>
@@ -3001,22 +3135,22 @@
         <v>10</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S23" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T23" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V23" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="V23" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -3034,7 +3168,7 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H24" s="12">
         <v>22</v>
@@ -3043,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>20</v>
@@ -3056,7 +3190,7 @@
         <v>121</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P24" s="12" t="s">
         <v>19</v>
@@ -3065,19 +3199,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S24" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="U24" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="T24" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>15</v>
       </c>
@@ -3088,12 +3222,12 @@
         <v>123</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -3102,7 +3236,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K25" s="27" t="s">
         <v>19</v>
@@ -3120,22 +3254,22 @@
         <v>10</v>
       </c>
       <c r="R25" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="U25" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S25" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="T25" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="V25" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V25" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>15</v>
       </c>
@@ -3146,12 +3280,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H26" s="28">
         <v>24</v>
@@ -3160,7 +3294,7 @@
         <v>19</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>19</v>
@@ -3178,22 +3312,22 @@
         <v>10</v>
       </c>
       <c r="R26" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="U26" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S26" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="V26" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V26" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
@@ -3204,12 +3338,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -3218,7 +3352,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K27" s="27" t="s">
         <v>19</v>
@@ -3236,22 +3370,22 @@
         <v>10</v>
       </c>
       <c r="R27" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="U27" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="S27" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="T27" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="V27" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V27" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
@@ -3262,12 +3396,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H28" s="28">
         <v>26</v>
@@ -3276,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K28" s="27" t="s">
         <v>19</v>
@@ -3294,22 +3428,22 @@
         <v>10</v>
       </c>
       <c r="R28" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="U28" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="S28" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="T28" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="V28" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V28" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>15</v>
       </c>
@@ -3320,12 +3454,12 @@
         <v>123</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -3334,7 +3468,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K29" s="27" t="s">
         <v>19</v>
@@ -3352,22 +3486,22 @@
         <v>10</v>
       </c>
       <c r="R29" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="U29" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S29" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="T29" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="U29" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="V29" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V29" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>15</v>
       </c>
@@ -3378,12 +3512,12 @@
         <v>123</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H30" s="28">
         <v>28</v>
@@ -3392,7 +3526,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K30" s="27" t="s">
         <v>20</v>
@@ -3405,7 +3539,7 @@
       </c>
       <c r="N30" s="27"/>
       <c r="O30" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P30" s="28" t="s">
         <v>19</v>
@@ -3414,19 +3548,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S30" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="U30" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="T30" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>15</v>
       </c>
@@ -3437,12 +3571,12 @@
         <v>123</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -3451,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K31" s="27" t="s">
         <v>19</v>
@@ -3469,22 +3603,22 @@
         <v>10</v>
       </c>
       <c r="R31" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="U31" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="S31" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="T31" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="U31" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="V31" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V31" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>15</v>
       </c>
@@ -3495,12 +3629,12 @@
         <v>123</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H32" s="28">
         <v>30</v>
@@ -3509,7 +3643,7 @@
         <v>19</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>19</v>
@@ -3527,19 +3661,19 @@
         <v>10</v>
       </c>
       <c r="R32" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T32" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="U32" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S32" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="T32" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="U32" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="V32" s="66" t="s">
-        <v>249</v>
+      <c r="V32" s="40" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3553,12 +3687,12 @@
         <v>123</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -3567,7 +3701,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>20</v>
@@ -3580,7 +3714,7 @@
       </c>
       <c r="N33" s="27"/>
       <c r="O33" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P33" s="28" t="s">
         <v>20</v>
@@ -3589,16 +3723,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S33" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T33" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U33" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3612,14 +3746,14 @@
         <v>123</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H34" s="28">
         <v>32</v>
@@ -3628,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K34" s="27" t="s">
         <v>19</v>
@@ -3646,19 +3780,19 @@
         <v>10</v>
       </c>
       <c r="R34" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="U34" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S34" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="T34" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="U34" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="V34" s="66" t="s">
-        <v>249</v>
+      <c r="V34" s="40" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3672,12 +3806,12 @@
         <v>123</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H35" s="31">
         <v>33</v>
@@ -3686,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K35" s="33" t="s">
         <v>19</v>
@@ -3704,19 +3838,19 @@
         <v>10</v>
       </c>
       <c r="R35" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S35" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T35" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U35" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="V35" s="66" t="s">
-        <v>249</v>
+        <v>217</v>
+      </c>
+      <c r="V35" s="40" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3730,7 +3864,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
@@ -3744,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K36" s="33" t="s">
         <v>20</v>
@@ -3775,12 +3909,12 @@
         <v>123</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H37" s="31">
         <v>35</v>
@@ -3789,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K37" s="33" t="s">
         <v>20</v>
@@ -3802,7 +3936,7 @@
         <v>33</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P37" s="34" t="s">
         <v>19</v>
@@ -3811,16 +3945,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="S37" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="T37" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="U37" s="34" t="s">
         <v>195</v>
-      </c>
-      <c r="T37" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="U37" s="34" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3834,12 +3968,12 @@
         <v>123</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H38" s="34">
         <v>36</v>
@@ -3848,7 +3982,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K38" s="33" t="s">
         <v>20</v>
@@ -3861,7 +3995,7 @@
         <v>52</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P38" s="34" t="s">
         <v>20</v>
@@ -3870,16 +4004,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S38" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="U38" s="34" t="s">
         <v>195</v>
-      </c>
-      <c r="T38" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="U38" s="34" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3985,7 +4119,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="15"/>
       <c r="J43" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -4010,7 +4144,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="15"/>
       <c r="J44" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -4093,10 +4227,10 @@
       <c r="T47" s="17"/>
       <c r="U47" s="14"/>
       <c r="V47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="W47" t="s">
         <v>249</v>
-      </c>
-      <c r="W47" t="s">
-        <v>253</v>
       </c>
       <c r="X47">
         <v>8</v>
@@ -5049,6 +5183,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5063,12 +5203,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="264">
   <si>
     <t>Asignatura</t>
   </si>
@@ -913,6 +913,15 @@
   </si>
   <si>
     <t>Identifica los distintos tipos de rectas</t>
+  </si>
+  <si>
+    <t>Andrea Sabogal</t>
+  </si>
+  <si>
+    <t>Diana Gonzalez</t>
+  </si>
+  <si>
+    <t>Cristhian Fuentes</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1156,11 +1165,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1269,16 +1287,79 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,67 +1401,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1689,9 +1713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,65 +1746,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="61" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="38" t="s">
@@ -1789,36 +1813,36 @@
       <c r="W1" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="X1" s="80" t="s">
+      <c r="X1" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="9" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1836,52 +1860,52 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="44">
         <v>1</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="83" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="71">
+      <c r="Q3" s="46">
         <v>10</v>
       </c>
-      <c r="R3" s="71" t="s">
+      <c r="R3" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="46" t="s">
         <v>220</v>
       </c>
       <c r="V3" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W3" s="73">
+      <c r="W3" s="48">
         <v>42394</v>
       </c>
-      <c r="X3" s="81">
+      <c r="X3" s="56">
         <v>42394</v>
       </c>
     </row>
@@ -1942,6 +1966,9 @@
       </c>
       <c r="U4" s="20" t="s">
         <v>195</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -1998,6 +2025,9 @@
       <c r="U5" s="20" t="s">
         <v>197</v>
       </c>
+      <c r="V5" s="84" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -2057,6 +2087,9 @@
       <c r="U6" s="20" t="s">
         <v>201</v>
       </c>
+      <c r="V6" s="84" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -2116,6 +2149,9 @@
       <c r="U7" s="20" t="s">
         <v>195</v>
       </c>
+      <c r="V7" s="84" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -2177,6 +2213,9 @@
       <c r="U8" s="20" t="s">
         <v>195</v>
       </c>
+      <c r="V8" s="84" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -2193,54 +2232,54 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="50">
         <v>7</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="74" t="s">
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="P9" s="77" t="s">
+      <c r="P9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="Q9" s="52">
         <v>10</v>
       </c>
-      <c r="R9" s="77" t="s">
+      <c r="R9" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="S9" s="78" t="s">
+      <c r="S9" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="T9" s="78" t="s">
+      <c r="T9" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="77" t="s">
+      <c r="U9" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="V9" s="79" t="s">
+      <c r="V9" s="54" t="s">
         <v>245</v>
       </c>
       <c r="Y9" t="s">
         <v>257</v>
       </c>
-      <c r="AB9" s="67">
+      <c r="AB9" s="42">
         <v>42547</v>
       </c>
     </row>
@@ -2259,54 +2298,54 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="52">
         <v>8</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="76" t="s">
+      <c r="L10" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="74" t="s">
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="P10" s="77" t="s">
+      <c r="P10" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="77">
+      <c r="Q10" s="52">
         <v>10</v>
       </c>
-      <c r="R10" s="77" t="s">
+      <c r="R10" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="78" t="s">
+      <c r="S10" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="78" t="s">
+      <c r="T10" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="U10" s="77" t="s">
+      <c r="U10" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="79" t="s">
+      <c r="V10" s="54" t="s">
         <v>245</v>
       </c>
       <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" s="67">
+      <c r="AB10" s="42">
         <v>42395</v>
       </c>
     </row>
@@ -2325,49 +2364,49 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="44">
         <v>9</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="71" t="s">
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="71">
+      <c r="Q11" s="46">
         <v>10</v>
       </c>
-      <c r="R11" s="71" t="s">
+      <c r="R11" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="S11" s="72" t="s">
+      <c r="S11" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T11" s="72" t="s">
+      <c r="T11" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="U11" s="71" t="s">
+      <c r="U11" s="46" t="s">
         <v>220</v>
       </c>
       <c r="V11" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W11" s="73">
+      <c r="W11" s="48">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
@@ -2389,49 +2428,49 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="46">
         <v>10</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="71" t="s">
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="71">
+      <c r="Q12" s="46">
         <v>10</v>
       </c>
-      <c r="R12" s="71" t="s">
+      <c r="R12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="S12" s="72" t="s">
+      <c r="S12" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="72" t="s">
+      <c r="T12" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="46" t="s">
         <v>217</v>
       </c>
       <c r="V12" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W12" s="73">
+      <c r="W12" s="48">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
@@ -2456,43 +2495,43 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="50">
         <v>11</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="76" t="s">
+      <c r="L13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="77" t="s">
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="77">
+      <c r="Q13" s="52">
         <v>10</v>
       </c>
-      <c r="R13" s="77" t="s">
+      <c r="R13" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="S13" s="78" t="s">
+      <c r="S13" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="78" t="s">
+      <c r="T13" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="U13" s="77" t="s">
+      <c r="U13" s="52" t="s">
         <v>217</v>
       </c>
       <c r="V13" s="41" t="s">
@@ -2523,49 +2562,49 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="46">
         <v>12</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="71" t="s">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="71">
+      <c r="Q14" s="46">
         <v>10</v>
       </c>
-      <c r="R14" s="71" t="s">
+      <c r="R14" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="72" t="s">
+      <c r="S14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="72" t="s">
+      <c r="T14" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="U14" s="71" t="s">
+      <c r="U14" s="46" t="s">
         <v>217</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W14" s="73">
+      <c r="W14" s="48">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
@@ -2587,49 +2626,49 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="44">
         <v>13</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="71" t="s">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="71">
+      <c r="Q15" s="46">
         <v>10</v>
       </c>
-      <c r="R15" s="71" t="s">
+      <c r="R15" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="S15" s="72" t="s">
+      <c r="S15" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="72" t="s">
+      <c r="T15" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="71" t="s">
+      <c r="U15" s="46" t="s">
         <v>220</v>
       </c>
       <c r="V15" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W15" s="73">
+      <c r="W15" s="48">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
@@ -2651,49 +2690,49 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="46">
         <v>14</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="70" t="s">
+      <c r="K16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="71" t="s">
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="71">
+      <c r="Q16" s="46">
         <v>10</v>
       </c>
-      <c r="R16" s="71" t="s">
+      <c r="R16" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="S16" s="72" t="s">
+      <c r="S16" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T16" s="72" t="s">
+      <c r="T16" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="71" t="s">
+      <c r="U16" s="46" t="s">
         <v>222</v>
       </c>
       <c r="V16" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W16" s="73">
+      <c r="W16" s="48">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
@@ -2715,49 +2754,49 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="44">
         <v>15</v>
       </c>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="71" t="s">
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="71">
+      <c r="Q17" s="46">
         <v>10</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="72" t="s">
+      <c r="S17" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="72" t="s">
+      <c r="T17" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="71" t="s">
+      <c r="U17" s="46" t="s">
         <v>217</v>
       </c>
       <c r="V17" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W17" s="73">
+      <c r="W17" s="48">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
@@ -2779,43 +2818,43 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="52">
         <v>16</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="76" t="s">
+      <c r="K18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="76" t="s">
+      <c r="L18" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="77" t="s">
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="77">
+      <c r="Q18" s="52">
         <v>10</v>
       </c>
-      <c r="R18" s="77" t="s">
+      <c r="R18" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="78" t="s">
+      <c r="S18" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="T18" s="78" t="s">
+      <c r="T18" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="77" t="s">
+      <c r="U18" s="52" t="s">
         <v>217</v>
       </c>
       <c r="V18" s="41" t="s">
@@ -2846,43 +2885,43 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="50">
         <v>17</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L19" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="77" t="s">
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="77">
+      <c r="Q19" s="52">
         <v>10</v>
       </c>
-      <c r="R19" s="77" t="s">
+      <c r="R19" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="S19" s="78" t="s">
+      <c r="S19" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="T19" s="78" t="s">
+      <c r="T19" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="U19" s="77" t="s">
+      <c r="U19" s="52" t="s">
         <v>222</v>
       </c>
       <c r="V19" s="41" t="s">
@@ -2913,49 +2952,49 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="46">
         <v>18</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="71" t="s">
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="71">
+      <c r="Q20" s="46">
         <v>10</v>
       </c>
-      <c r="R20" s="71" t="s">
+      <c r="R20" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="S20" s="72" t="s">
+      <c r="S20" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="72" t="s">
+      <c r="T20" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="U20" s="71" t="s">
+      <c r="U20" s="46" t="s">
         <v>222</v>
       </c>
       <c r="V20" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W20" s="73">
+      <c r="W20" s="48">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
@@ -2977,49 +3016,49 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="44">
         <v>19</v>
       </c>
-      <c r="I21" s="70" t="s">
+      <c r="I21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="71" t="s">
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="46">
         <v>10</v>
       </c>
-      <c r="R21" s="71" t="s">
+      <c r="R21" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="72" t="s">
+      <c r="T21" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="U21" s="71" t="s">
+      <c r="U21" s="46" t="s">
         <v>222</v>
       </c>
       <c r="V21" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W21" s="73">
+      <c r="W21" s="48">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
@@ -3041,51 +3080,51 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="46">
         <v>20</v>
       </c>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="70" t="s">
+      <c r="K22" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="70" t="s">
+      <c r="L22" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="68" t="s">
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="P22" s="71" t="s">
+      <c r="P22" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="71">
+      <c r="Q22" s="46">
         <v>10</v>
       </c>
-      <c r="R22" s="71" t="s">
+      <c r="R22" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="72" t="s">
+      <c r="S22" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T22" s="72" t="s">
+      <c r="T22" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="71" t="s">
+      <c r="U22" s="46" t="s">
         <v>222</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W22" s="73">
+      <c r="W22" s="48">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
@@ -3210,6 +3249,9 @@
       <c r="U24" s="12" t="s">
         <v>195</v>
       </c>
+      <c r="V24" s="84" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
@@ -3559,6 +3601,9 @@
       <c r="U30" s="28" t="s">
         <v>201</v>
       </c>
+      <c r="V30" s="40" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
@@ -3734,6 +3779,9 @@
       <c r="U33" s="28" t="s">
         <v>197</v>
       </c>
+      <c r="V33" s="40" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -3956,6 +4004,9 @@
       <c r="U37" s="34" t="s">
         <v>195</v>
       </c>
+      <c r="V37" s="85" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -4014,6 +4065,9 @@
       </c>
       <c r="U38" s="34" t="s">
         <v>195</v>
+      </c>
+      <c r="V38" s="85" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -5183,12 +5237,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5203,6 +5251,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1713,9 +1713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,15 +1729,15 @@
     <col min="7" max="7" width="64.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="74.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="74.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="23" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="42.28515625" style="11" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="56.5703125" style="11" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="1" customWidth="1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="264">
   <si>
     <t>Asignatura</t>
   </si>
@@ -888,9 +888,6 @@
     <t>No necesita</t>
   </si>
   <si>
-    <t>Confirmar necesidad de cambiar los ejes para que queden en letra cursiva</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enviado a Pedro para arreglar </t>
   </si>
   <si>
@@ -922,13 +919,16 @@
   </si>
   <si>
     <t>Cristhian Fuentes</t>
+  </si>
+  <si>
+    <t>Enviado a Pedro para cambiar fraese "españolas"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +978,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1178,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1322,9 +1335,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1332,6 +1350,45 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,56 +1413,38 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1713,9 +1752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,18 +1765,19 @@
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.28515625" customWidth="1"/>
+    <col min="7" max="7" width="63.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="74.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="23" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="42.28515625" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="11" customWidth="1"/>
     <col min="20" max="20" width="56.5703125" style="11" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="1" customWidth="1"/>
@@ -1746,65 +1786,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="75" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="38" t="s">
@@ -1818,31 +1858,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="9" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="76"/>
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1860,49 +1900,49 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="91">
         <v>1</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="94">
         <v>10</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="U3" s="94" t="s">
         <v>220</v>
       </c>
       <c r="V3" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W3" s="48">
+      <c r="W3" s="90">
         <v>42394</v>
       </c>
       <c r="X3" s="56">
@@ -1967,8 +2007,8 @@
       <c r="U4" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="84" t="s">
-        <v>261</v>
+      <c r="V4" s="57" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2025,8 +2065,8 @@
       <c r="U5" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="84" t="s">
-        <v>263</v>
+      <c r="V5" s="57" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2087,8 +2127,8 @@
       <c r="U6" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="V6" s="84" t="s">
-        <v>262</v>
+      <c r="V6" s="57" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2149,8 +2189,8 @@
       <c r="U7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="V7" s="84" t="s">
-        <v>261</v>
+      <c r="V7" s="57" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2213,8 +2253,8 @@
       <c r="U8" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="84" t="s">
-        <v>261</v>
+      <c r="V8" s="57" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2277,7 +2317,7 @@
         <v>245</v>
       </c>
       <c r="Y9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB9" s="42">
         <v>42547</v>
@@ -2343,7 +2383,7 @@
         <v>245</v>
       </c>
       <c r="Y10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB10" s="42">
         <v>42395</v>
@@ -2364,49 +2404,49 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="85">
         <v>9</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="46" t="s">
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="87">
         <v>10</v>
       </c>
-      <c r="R11" s="46" t="s">
+      <c r="R11" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="S11" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="U11" s="46" t="s">
+      <c r="U11" s="87" t="s">
         <v>220</v>
       </c>
       <c r="V11" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W11" s="48">
+      <c r="W11" s="90">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
@@ -2428,56 +2468,53 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="87">
         <v>10</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="46" t="s">
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="87">
         <v>10</v>
       </c>
-      <c r="R12" s="46" t="s">
+      <c r="R12" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="S12" s="47" t="s">
+      <c r="S12" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="46" t="s">
+      <c r="U12" s="87" t="s">
         <v>217</v>
       </c>
       <c r="V12" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W12" s="48">
+      <c r="W12" s="90">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
         <v>251</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2544,7 +2581,7 @@
         <v>251</v>
       </c>
       <c r="Y13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2562,49 +2599,49 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="87">
         <v>12</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="K14" s="45" t="s">
+      <c r="J14" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L14" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="46" t="s">
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="87">
         <v>10</v>
       </c>
-      <c r="R14" s="46" t="s">
+      <c r="R14" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="47" t="s">
+      <c r="S14" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="47" t="s">
+      <c r="T14" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="U14" s="46" t="s">
+      <c r="U14" s="87" t="s">
         <v>217</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W14" s="48">
+      <c r="W14" s="90">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
@@ -2626,49 +2663,49 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="85">
         <v>13</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="46" t="s">
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="87">
         <v>10</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="S15" s="47" t="s">
+      <c r="S15" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="47" t="s">
+      <c r="T15" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="46" t="s">
+      <c r="U15" s="87" t="s">
         <v>220</v>
       </c>
       <c r="V15" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W15" s="48">
+      <c r="W15" s="90">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
@@ -2690,49 +2727,49 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="87">
         <v>14</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="46" t="s">
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="87">
         <v>10</v>
       </c>
-      <c r="R16" s="46" t="s">
+      <c r="R16" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="S16" s="47" t="s">
+      <c r="S16" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T16" s="47" t="s">
+      <c r="T16" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="46" t="s">
+      <c r="U16" s="87" t="s">
         <v>222</v>
       </c>
       <c r="V16" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W16" s="48">
+      <c r="W16" s="90">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
@@ -2754,49 +2791,49 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="85">
         <v>15</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="46" t="s">
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="87">
         <v>10</v>
       </c>
-      <c r="R17" s="46" t="s">
+      <c r="R17" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="47" t="s">
+      <c r="S17" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="47" t="s">
+      <c r="T17" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="46" t="s">
+      <c r="U17" s="87" t="s">
         <v>217</v>
       </c>
       <c r="V17" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W17" s="48">
+      <c r="W17" s="90">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
@@ -2864,10 +2901,10 @@
         <v>251</v>
       </c>
       <c r="X18" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y18" t="s">
         <v>258</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2934,7 +2971,7 @@
         <v>251</v>
       </c>
       <c r="Y19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2952,49 +2989,49 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="87">
         <v>18</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="46" t="s">
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="87">
         <v>10</v>
       </c>
-      <c r="R20" s="46" t="s">
+      <c r="R20" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="S20" s="47" t="s">
+      <c r="S20" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="47" t="s">
+      <c r="T20" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="U20" s="46" t="s">
+      <c r="U20" s="87" t="s">
         <v>222</v>
       </c>
       <c r="V20" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="90">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
@@ -3016,49 +3053,49 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="H21" s="44">
+      <c r="G21" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="85">
         <v>19</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="46" t="s">
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="87">
         <v>10</v>
       </c>
-      <c r="R21" s="46" t="s">
+      <c r="R21" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="S21" s="47" t="s">
+      <c r="S21" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="47" t="s">
+      <c r="T21" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="U21" s="46" t="s">
+      <c r="U21" s="87" t="s">
         <v>222</v>
       </c>
       <c r="V21" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W21" s="48">
+      <c r="W21" s="90">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
@@ -3080,51 +3117,51 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="87">
         <v>20</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="43" t="s">
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="P22" s="46" t="s">
+      <c r="P22" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="87">
         <v>10</v>
       </c>
-      <c r="R22" s="46" t="s">
+      <c r="R22" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="47" t="s">
+      <c r="S22" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="T22" s="47" t="s">
+      <c r="T22" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="46" t="s">
+      <c r="U22" s="87" t="s">
         <v>222</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W22" s="48">
+      <c r="W22" s="90">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
@@ -3146,47 +3183,53 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="44">
         <v>21</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="12" t="s">
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="46">
         <v>10</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="T23" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="V23" s="40" t="s">
+      <c r="V23" s="41" t="s">
         <v>245</v>
+      </c>
+      <c r="W23" s="48">
+        <v>42401</v>
+      </c>
+      <c r="X23" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3249,8 +3292,8 @@
       <c r="U24" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="84" t="s">
-        <v>261</v>
+      <c r="V24" s="57" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3268,47 +3311,56 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="50">
         <v>23</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="28" t="s">
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="52">
         <v>10</v>
       </c>
-      <c r="R25" s="28" t="s">
+      <c r="R25" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="S25" s="29" t="s">
+      <c r="S25" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="T25" s="29" t="s">
+      <c r="T25" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="U25" s="28" t="s">
+      <c r="U25" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="V25" s="40" t="s">
+      <c r="V25" s="54" t="s">
         <v>245</v>
+      </c>
+      <c r="W25" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="X25" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3601,8 +3653,8 @@
       <c r="U30" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="V30" s="40" t="s">
-        <v>262</v>
+      <c r="V30" s="83" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3779,8 +3831,8 @@
       <c r="U33" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="V33" s="40" t="s">
-        <v>263</v>
+      <c r="V33" s="83" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4004,8 +4056,8 @@
       <c r="U37" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="V37" s="85" t="s">
-        <v>261</v>
+      <c r="V37" s="84" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4066,8 +4118,8 @@
       <c r="U38" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="V38" s="85" t="s">
-        <v>261</v>
+      <c r="V38" s="84" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4281,7 +4333,7 @@
       <c r="T47" s="17"/>
       <c r="U47" s="14"/>
       <c r="V47" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W47" t="s">
         <v>249</v>
@@ -5237,6 +5289,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5251,12 +5309,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="263">
   <si>
     <t>Asignatura</t>
   </si>
@@ -888,27 +888,15 @@
     <t>No necesita</t>
   </si>
   <si>
-    <t xml:space="preserve">Enviado a Pedro para arreglar </t>
-  </si>
-  <si>
-    <t>Enviado a Pedro para poner la k en cursiva</t>
-  </si>
-  <si>
     <t>Actividad que permite clasificar distintos tipos de funciones</t>
   </si>
   <si>
     <t>Josué 25</t>
   </si>
   <si>
-    <t>Pedro ya realizo los cambios</t>
-  </si>
-  <si>
     <t>NO necesita</t>
   </si>
   <si>
-    <t>Pedro ya arreglo</t>
-  </si>
-  <si>
     <t>Identifica los distintos tipos de rectas</t>
   </si>
   <si>
@@ -922,6 +910,15 @@
   </si>
   <si>
     <t>Enviado a Pedro para cambiar fraese "españolas"</t>
+  </si>
+  <si>
+    <t>No se pueden dejar los números sin cursiva</t>
+  </si>
+  <si>
+    <t>la k no se puede dejar en cursiva</t>
+  </si>
+  <si>
+    <t>Debo pedir cmabio de recurso a Pedro</t>
   </si>
 </sst>
 </file>
@@ -993,7 +990,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,6 +1099,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1191,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1315,22 +1318,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1338,81 +1325,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1444,6 +1356,94 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1752,9 +1752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,65 +1786,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="S1" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="38" t="s">
@@ -1853,36 +1853,36 @@
       <c r="W1" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="49" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="67"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="9" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="76"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="68"/>
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1900,52 +1900,52 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="91">
+      <c r="H3" s="60">
         <v>1</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="93" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="94">
+      <c r="Q3" s="63">
         <v>10</v>
       </c>
-      <c r="R3" s="94" t="s">
+      <c r="R3" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="S3" s="95" t="s">
+      <c r="S3" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="95" t="s">
+      <c r="T3" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="94" t="s">
+      <c r="U3" s="63" t="s">
         <v>220</v>
       </c>
       <c r="V3" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W3" s="90">
+      <c r="W3" s="59">
         <v>42394</v>
       </c>
-      <c r="X3" s="56">
+      <c r="X3" s="50">
         <v>42394</v>
       </c>
     </row>
@@ -2007,8 +2007,8 @@
       <c r="U4" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="57" t="s">
-        <v>260</v>
+      <c r="V4" s="51" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2065,8 +2065,8 @@
       <c r="U5" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="57" t="s">
-        <v>262</v>
+      <c r="V5" s="51" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2127,8 +2127,8 @@
       <c r="U6" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="V6" s="57" t="s">
-        <v>261</v>
+      <c r="V6" s="51" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2189,8 +2189,8 @@
       <c r="U7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="V7" s="57" t="s">
-        <v>260</v>
+      <c r="V7" s="51" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2253,8 +2253,8 @@
       <c r="U8" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="57" t="s">
-        <v>260</v>
+      <c r="V8" s="51" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2272,52 +2272,55 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="54">
         <v>7</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="49" t="s">
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="56">
         <v>10</v>
       </c>
-      <c r="R9" s="52" t="s">
+      <c r="R9" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="S9" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="52" t="s">
+      <c r="U9" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="V9" s="54" t="s">
+      <c r="V9" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="Y9" t="s">
-        <v>256</v>
+      <c r="W9" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="X9" s="52" t="s">
+        <v>251</v>
       </c>
       <c r="AB9" s="42">
         <v>42547</v>
@@ -2338,52 +2341,58 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="56">
         <v>8</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="49" t="s">
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="56">
         <v>10</v>
       </c>
-      <c r="R10" s="52" t="s">
+      <c r="R10" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="53" t="s">
+      <c r="S10" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="53" t="s">
+      <c r="T10" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="U10" s="52" t="s">
+      <c r="U10" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="V10" s="54" t="s">
+      <c r="V10" s="41" t="s">
         <v>245</v>
       </c>
+      <c r="W10" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="X10" s="52" t="s">
+        <v>251</v>
+      </c>
       <c r="Y10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AB10" s="42">
         <v>42395</v>
@@ -2404,49 +2413,49 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="54">
         <v>9</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="86" t="s">
+      <c r="J11" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="88" t="s">
+      <c r="K11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="87" t="s">
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="87">
+      <c r="Q11" s="56">
         <v>10</v>
       </c>
-      <c r="R11" s="87" t="s">
+      <c r="R11" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="S11" s="89" t="s">
+      <c r="S11" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T11" s="89" t="s">
+      <c r="T11" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="U11" s="87" t="s">
+      <c r="U11" s="56" t="s">
         <v>220</v>
       </c>
       <c r="V11" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W11" s="90">
+      <c r="W11" s="59">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
@@ -2468,49 +2477,49 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="56">
         <v>10</v>
       </c>
-      <c r="I12" s="88" t="s">
+      <c r="I12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="87" t="s">
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="87">
+      <c r="Q12" s="56">
         <v>10</v>
       </c>
-      <c r="R12" s="87" t="s">
+      <c r="R12" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="S12" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="89" t="s">
+      <c r="T12" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="56" t="s">
         <v>217</v>
       </c>
       <c r="V12" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W12" s="90">
+      <c r="W12" s="59">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
@@ -2532,43 +2541,43 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="54">
         <v>11</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="52" t="s">
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="56">
         <v>10</v>
       </c>
-      <c r="R13" s="52" t="s">
+      <c r="R13" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S13" s="53" t="s">
+      <c r="S13" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="53" t="s">
+      <c r="T13" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="U13" s="52" t="s">
+      <c r="U13" s="56" t="s">
         <v>217</v>
       </c>
       <c r="V13" s="41" t="s">
@@ -2581,7 +2590,7 @@
         <v>251</v>
       </c>
       <c r="Y13" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2599,49 +2608,49 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="56">
         <v>12</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="K14" s="88" t="s">
+      <c r="J14" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="88" t="s">
+      <c r="L14" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87" t="s">
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="87">
+      <c r="Q14" s="56">
         <v>10</v>
       </c>
-      <c r="R14" s="87" t="s">
+      <c r="R14" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="89" t="s">
+      <c r="S14" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="89" t="s">
+      <c r="T14" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="U14" s="87" t="s">
+      <c r="U14" s="56" t="s">
         <v>217</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W14" s="90">
+      <c r="W14" s="59">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
@@ -2663,49 +2672,49 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="54">
         <v>13</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="88" t="s">
+      <c r="K15" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="88" t="s">
+      <c r="L15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87" t="s">
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="87">
+      <c r="Q15" s="56">
         <v>10</v>
       </c>
-      <c r="R15" s="87" t="s">
+      <c r="R15" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="S15" s="89" t="s">
+      <c r="S15" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="89" t="s">
+      <c r="T15" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="87" t="s">
+      <c r="U15" s="56" t="s">
         <v>220</v>
       </c>
       <c r="V15" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W15" s="90">
+      <c r="W15" s="59">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
@@ -2727,49 +2736,49 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="56">
         <v>14</v>
       </c>
-      <c r="I16" s="88" t="s">
+      <c r="I16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="88" t="s">
+      <c r="K16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="88" t="s">
+      <c r="L16" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87" t="s">
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="87">
+      <c r="Q16" s="56">
         <v>10</v>
       </c>
-      <c r="R16" s="87" t="s">
+      <c r="R16" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="S16" s="89" t="s">
+      <c r="S16" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T16" s="89" t="s">
+      <c r="T16" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="87" t="s">
+      <c r="U16" s="56" t="s">
         <v>222</v>
       </c>
       <c r="V16" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W16" s="90">
+      <c r="W16" s="59">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
@@ -2791,49 +2800,49 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="54">
         <v>15</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="86" t="s">
+      <c r="J17" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="88" t="s">
+      <c r="K17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L17" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="87" t="s">
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="87">
+      <c r="Q17" s="56">
         <v>10</v>
       </c>
-      <c r="R17" s="87" t="s">
+      <c r="R17" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="89" t="s">
+      <c r="S17" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="89" t="s">
+      <c r="T17" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="87" t="s">
+      <c r="U17" s="56" t="s">
         <v>217</v>
       </c>
       <c r="V17" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W17" s="90">
+      <c r="W17" s="59">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
@@ -2855,43 +2864,43 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="56">
         <v>16</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="52" t="s">
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="52">
+      <c r="Q18" s="56">
         <v>10</v>
       </c>
-      <c r="R18" s="52" t="s">
+      <c r="R18" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="53" t="s">
+      <c r="S18" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T18" s="53" t="s">
+      <c r="T18" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="52" t="s">
+      <c r="U18" s="56" t="s">
         <v>217</v>
       </c>
       <c r="V18" s="41" t="s">
@@ -2901,10 +2910,10 @@
         <v>251</v>
       </c>
       <c r="X18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y18" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2922,43 +2931,43 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="54">
         <v>17</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="52" t="s">
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="52">
+      <c r="Q19" s="56">
         <v>10</v>
       </c>
-      <c r="R19" s="52" t="s">
+      <c r="R19" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="S19" s="53" t="s">
+      <c r="S19" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T19" s="53" t="s">
+      <c r="T19" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="U19" s="52" t="s">
+      <c r="U19" s="56" t="s">
         <v>222</v>
       </c>
       <c r="V19" s="41" t="s">
@@ -2971,7 +2980,7 @@
         <v>251</v>
       </c>
       <c r="Y19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2989,49 +2998,49 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="56">
         <v>18</v>
       </c>
-      <c r="I20" s="88" t="s">
+      <c r="I20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="88" t="s">
+      <c r="K20" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="88" t="s">
+      <c r="L20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="87" t="s">
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="87">
+      <c r="Q20" s="56">
         <v>10</v>
       </c>
-      <c r="R20" s="87" t="s">
+      <c r="R20" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="S20" s="89" t="s">
+      <c r="S20" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="89" t="s">
+      <c r="T20" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="U20" s="87" t="s">
+      <c r="U20" s="56" t="s">
         <v>222</v>
       </c>
       <c r="V20" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W20" s="90">
+      <c r="W20" s="59">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
@@ -3053,49 +3062,49 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="86" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" s="85">
+      <c r="G21" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="54">
         <v>19</v>
       </c>
-      <c r="I21" s="88" t="s">
+      <c r="I21" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="86" t="s">
+      <c r="J21" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="K21" s="88" t="s">
+      <c r="K21" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="88" t="s">
+      <c r="L21" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="87" t="s">
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="87">
+      <c r="Q21" s="56">
         <v>10</v>
       </c>
-      <c r="R21" s="87" t="s">
+      <c r="R21" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="S21" s="89" t="s">
+      <c r="S21" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="89" t="s">
+      <c r="T21" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="U21" s="87" t="s">
+      <c r="U21" s="56" t="s">
         <v>222</v>
       </c>
       <c r="V21" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W21" s="90">
+      <c r="W21" s="59">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
@@ -3117,51 +3126,51 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="87">
+      <c r="H22" s="56">
         <v>20</v>
       </c>
-      <c r="I22" s="88" t="s">
+      <c r="I22" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="88" t="s">
+      <c r="K22" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="88" t="s">
+      <c r="L22" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="86" t="s">
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="P22" s="87" t="s">
+      <c r="P22" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="87">
+      <c r="Q22" s="56">
         <v>10</v>
       </c>
-      <c r="R22" s="87" t="s">
+      <c r="R22" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="89" t="s">
+      <c r="S22" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="T22" s="89" t="s">
+      <c r="T22" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="87" t="s">
+      <c r="U22" s="56" t="s">
         <v>222</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W22" s="90">
+      <c r="W22" s="59">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
@@ -3292,8 +3301,8 @@
       <c r="U24" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="57" t="s">
-        <v>260</v>
+      <c r="V24" s="51" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3311,56 +3320,56 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="54">
         <v>23</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="51" t="s">
+      <c r="L25" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="52" t="s">
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="52">
+      <c r="Q25" s="56">
         <v>10</v>
       </c>
-      <c r="R25" s="52" t="s">
+      <c r="R25" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S25" s="53" t="s">
+      <c r="S25" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="T25" s="53" t="s">
+      <c r="T25" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="U25" s="52" t="s">
+      <c r="U25" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="V25" s="54" t="s">
+      <c r="V25" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="W25" s="83" t="s">
+      <c r="W25" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="X25" s="83" t="s">
+      <c r="X25" s="52" t="s">
         <v>251</v>
       </c>
       <c r="Y25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3378,47 +3387,53 @@
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="56">
         <v>24</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="28" t="s">
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="56">
         <v>10</v>
       </c>
-      <c r="R26" s="28" t="s">
+      <c r="R26" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="S26" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="T26" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="U26" s="28" t="s">
+      <c r="U26" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="V26" s="40" t="s">
+      <c r="V26" s="41" t="s">
         <v>245</v>
+      </c>
+      <c r="W26" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" s="52" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3436,47 +3451,53 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="44">
         <v>25</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="28" t="s">
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="46">
         <v>10</v>
       </c>
-      <c r="R27" s="28" t="s">
+      <c r="R27" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="29" t="s">
+      <c r="T27" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="U27" s="28" t="s">
+      <c r="U27" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="V27" s="40" t="s">
+      <c r="V27" s="41" t="s">
         <v>245</v>
+      </c>
+      <c r="W27" s="48">
+        <v>42402</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3494,47 +3515,53 @@
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="46">
         <v>26</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="L28" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="28" t="s">
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="46">
         <v>10</v>
       </c>
-      <c r="R28" s="28" t="s">
+      <c r="R28" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="U28" s="28" t="s">
+      <c r="U28" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="V28" s="40" t="s">
+      <c r="V28" s="41" t="s">
         <v>245</v>
+      </c>
+      <c r="W28" s="48">
+        <v>42402</v>
+      </c>
+      <c r="X28" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3552,47 +3579,53 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="44">
         <v>27</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="28" t="s">
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="46">
         <v>10</v>
       </c>
-      <c r="R29" s="28" t="s">
+      <c r="R29" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="29" t="s">
+      <c r="S29" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="29" t="s">
+      <c r="T29" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="U29" s="28" t="s">
+      <c r="U29" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="V29" s="40" t="s">
+      <c r="V29" s="41" t="s">
         <v>245</v>
+      </c>
+      <c r="W29" s="48">
+        <v>42402</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3653,8 +3686,8 @@
       <c r="U30" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="V30" s="83" t="s">
-        <v>261</v>
+      <c r="V30" s="52" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3672,47 +3705,50 @@
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="91">
         <v>29</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="27" t="s">
+      <c r="L31" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="28" t="s">
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="93">
         <v>10</v>
       </c>
-      <c r="R31" s="28" t="s">
+      <c r="R31" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="S31" s="29" t="s">
+      <c r="S31" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="T31" s="29" t="s">
+      <c r="T31" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="U31" s="28" t="s">
+      <c r="U31" s="93" t="s">
         <v>220</v>
       </c>
       <c r="V31" s="40" t="s">
         <v>245</v>
+      </c>
+      <c r="X31" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3831,8 +3867,8 @@
       <c r="U33" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="V33" s="83" t="s">
-        <v>262</v>
+      <c r="V33" s="52" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4056,8 +4092,8 @@
       <c r="U37" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="V37" s="84" t="s">
-        <v>260</v>
+      <c r="V37" s="53" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4118,8 +4154,8 @@
       <c r="U38" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="V38" s="84" t="s">
-        <v>260</v>
+      <c r="V38" s="53" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4333,7 +4369,7 @@
       <c r="T47" s="17"/>
       <c r="U47" s="14"/>
       <c r="V47" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W47" t="s">
         <v>249</v>
@@ -5289,12 +5325,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5309,6 +5339,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="263">
   <si>
     <t>Asignatura</t>
   </si>
@@ -918,7 +918,7 @@
     <t>la k no se puede dejar en cursiva</t>
   </si>
   <si>
-    <t>Debo pedir cmabio de recurso a Pedro</t>
+    <t>Cambio de recurso pedido a Oliver 02/02/2016</t>
   </si>
 </sst>
 </file>
@@ -1194,14 +1194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1221,12 +1218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1241,53 +1232,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1322,9 +1274,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,40 +1307,29 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,19 +1371,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,9 +1708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,685 +1733,685 @@
     <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="56.5703125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="56.5703125" style="10" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="17.140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" customWidth="1"/>
     <col min="24" max="24" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="65" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="X1" s="49" t="s">
+      <c r="X1" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="9" t="s">
+    <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="10"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="43">
         <v>1</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62" t="s">
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="63">
+      <c r="Q3" s="46">
         <v>10</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="S3" s="64" t="s">
+      <c r="S3" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="T3" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="V3" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W3" s="59">
+      <c r="W3" s="42">
         <v>42394</v>
       </c>
-      <c r="X3" s="50">
+      <c r="X3" s="34">
         <v>42394</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="13">
         <v>2</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="13">
         <v>6</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="35" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="79">
         <v>3</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>6</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="T5" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>6</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V6" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="79">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>6</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="13">
+        <v>6</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q8" s="13">
         <v>6</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R8" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S5" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="V5" s="51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="S8" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T8" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D9" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="20">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="37">
+        <v>7</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J9" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="Q9" s="39">
+        <v>10</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="X9" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>42547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="39">
+        <v>8</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="20" t="s">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="20">
-        <v>6</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="18">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>6</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="T7" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="V7" s="51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="20">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>6</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="T8" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="V8" s="51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="54">
-        <v>7</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="P9" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="56">
+      <c r="Q10" s="39">
         <v>10</v>
       </c>
-      <c r="R9" s="56" t="s">
+      <c r="R10" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S9" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="U9" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="V9" s="41" t="s">
+      <c r="S10" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="V10" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W9" s="52" t="s">
+      <c r="W10" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="X9" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB9" s="42">
-        <v>42547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="56">
-        <v>8</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="56">
-        <v>10</v>
-      </c>
-      <c r="R10" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="T10" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="V10" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="W10" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="X10" s="52" t="s">
+      <c r="X10" s="35" t="s">
         <v>251</v>
       </c>
       <c r="Y10" t="s">
         <v>260</v>
       </c>
-      <c r="AB10" s="42">
+      <c r="AB10" s="26">
         <v>42395</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="55" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="37">
         <v>9</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56" t="s">
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="39">
         <v>10</v>
       </c>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="S11" s="58" t="s">
+      <c r="S11" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T11" s="58" t="s">
+      <c r="T11" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="U11" s="56" t="s">
+      <c r="U11" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="V11" s="41" t="s">
+      <c r="V11" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W11" s="59">
+      <c r="W11" s="42">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
@@ -2463,63 +2419,63 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="55" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="39">
         <v>10</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56" t="s">
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="56">
+      <c r="Q12" s="39">
         <v>10</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S12" s="58" t="s">
+      <c r="S12" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="58" t="s">
+      <c r="T12" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="V12" s="41" t="s">
+      <c r="V12" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W12" s="59">
+      <c r="W12" s="42">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
@@ -2527,60 +2483,60 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="55" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="37">
         <v>11</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56" t="s">
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="56">
+      <c r="Q13" s="39">
         <v>10</v>
       </c>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S13" s="58" t="s">
+      <c r="S13" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="58" t="s">
+      <c r="T13" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="U13" s="56" t="s">
+      <c r="U13" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="V13" s="41" t="s">
+      <c r="V13" s="25" t="s">
         <v>245</v>
       </c>
       <c r="W13" t="s">
@@ -2594,63 +2550,63 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="55" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="39">
         <v>12</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="56">
+      <c r="Q14" s="39">
         <v>10</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="58" t="s">
+      <c r="S14" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="58" t="s">
+      <c r="T14" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="U14" s="56" t="s">
+      <c r="U14" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="V14" s="41" t="s">
+      <c r="V14" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W14" s="59">
+      <c r="W14" s="42">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
@@ -2658,63 +2614,63 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="55" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="37">
         <v>13</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56" t="s">
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="56">
+      <c r="Q15" s="39">
         <v>10</v>
       </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="S15" s="58" t="s">
+      <c r="S15" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="58" t="s">
+      <c r="T15" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="56" t="s">
+      <c r="U15" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="V15" s="41" t="s">
+      <c r="V15" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W15" s="59">
+      <c r="W15" s="42">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
@@ -2722,63 +2678,63 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="55" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="39">
         <v>14</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="57" t="s">
+      <c r="L16" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56" t="s">
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="39">
         <v>10</v>
       </c>
-      <c r="R16" s="56" t="s">
+      <c r="R16" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="S16" s="58" t="s">
+      <c r="S16" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T16" s="58" t="s">
+      <c r="T16" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="56" t="s">
+      <c r="U16" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="V16" s="41" t="s">
+      <c r="V16" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W16" s="59">
+      <c r="W16" s="42">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
@@ -2786,63 +2742,63 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="55" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="37">
         <v>15</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56" t="s">
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="56">
+      <c r="Q17" s="39">
         <v>10</v>
       </c>
-      <c r="R17" s="56" t="s">
+      <c r="R17" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="58" t="s">
+      <c r="S17" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="58" t="s">
+      <c r="T17" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="U17" s="56" t="s">
+      <c r="U17" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="V17" s="41" t="s">
+      <c r="V17" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W17" s="59">
+      <c r="W17" s="42">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
@@ -2850,60 +2806,60 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="55" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="39">
         <v>16</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="57" t="s">
+      <c r="L18" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56" t="s">
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="56">
+      <c r="Q18" s="39">
         <v>10</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="58" t="s">
+      <c r="S18" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T18" s="58" t="s">
+      <c r="T18" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="56" t="s">
+      <c r="U18" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="V18" s="41" t="s">
+      <c r="V18" s="25" t="s">
         <v>245</v>
       </c>
       <c r="W18" t="s">
@@ -2917,60 +2873,60 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="55" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="37">
         <v>17</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="57" t="s">
+      <c r="L19" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56" t="s">
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="56">
+      <c r="Q19" s="39">
         <v>10</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R19" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="S19" s="58" t="s">
+      <c r="S19" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T19" s="58" t="s">
+      <c r="T19" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="U19" s="56" t="s">
+      <c r="U19" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="V19" s="41" t="s">
+      <c r="V19" s="25" t="s">
         <v>245</v>
       </c>
       <c r="W19" t="s">
@@ -2984,63 +2940,63 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="55" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="39">
         <v>18</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="57" t="s">
+      <c r="L20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56" t="s">
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="56">
+      <c r="Q20" s="39">
         <v>10</v>
       </c>
-      <c r="R20" s="56" t="s">
+      <c r="R20" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="S20" s="58" t="s">
+      <c r="S20" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="58" t="s">
+      <c r="T20" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="U20" s="56" t="s">
+      <c r="U20" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="V20" s="41" t="s">
+      <c r="V20" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W20" s="59">
+      <c r="W20" s="42">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
@@ -3048,63 +3004,63 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="55" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="37">
         <v>19</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56" t="s">
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21" s="39">
         <v>10</v>
       </c>
-      <c r="R21" s="56" t="s">
+      <c r="R21" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="S21" s="58" t="s">
+      <c r="S21" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="58" t="s">
+      <c r="T21" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="U21" s="56" t="s">
+      <c r="U21" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="V21" s="41" t="s">
+      <c r="V21" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W21" s="59">
+      <c r="W21" s="42">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
@@ -3112,65 +3068,65 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="55" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="39">
         <v>20</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="55" t="s">
+      <c r="J22" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="57" t="s">
+      <c r="L22" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="55" t="s">
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="P22" s="56" t="s">
+      <c r="P22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="56">
+      <c r="Q22" s="39">
         <v>10</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="R22" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="58" t="s">
+      <c r="S22" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T22" s="58" t="s">
+      <c r="T22" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="56" t="s">
+      <c r="U22" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="V22" s="41" t="s">
+      <c r="V22" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W22" s="59">
+      <c r="W22" s="42">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
@@ -3178,63 +3134,63 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="43" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="28">
         <v>21</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="L23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="46" t="s">
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="30">
         <v>10</v>
       </c>
-      <c r="R23" s="46" t="s">
+      <c r="R23" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="47" t="s">
+      <c r="S23" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="T23" s="47" t="s">
+      <c r="T23" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="46" t="s">
+      <c r="U23" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="V23" s="41" t="s">
+      <c r="V23" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="48">
+      <c r="W23" s="32">
         <v>42401</v>
       </c>
       <c r="X23" t="s">
@@ -3242,130 +3198,130 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <v>22</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13" t="s">
+      <c r="M24" s="12"/>
+      <c r="N24" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="13">
         <v>6</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="23" t="s">
+      <c r="S24" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="24" t="s">
+      <c r="T24" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="U24" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="51" t="s">
+      <c r="V24" s="35" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="55" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="37">
         <v>23</v>
       </c>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="55" t="s">
+      <c r="J25" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="56" t="s">
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="56">
+      <c r="Q25" s="39">
         <v>10</v>
       </c>
-      <c r="R25" s="56" t="s">
+      <c r="R25" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S25" s="58" t="s">
+      <c r="S25" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="T25" s="58" t="s">
+      <c r="T25" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="U25" s="56" t="s">
+      <c r="U25" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="V25" s="41" t="s">
+      <c r="V25" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W25" s="52" t="s">
+      <c r="W25" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="X25" s="52" t="s">
+      <c r="X25" s="35" t="s">
         <v>251</v>
       </c>
       <c r="Y25" t="s">
@@ -3373,127 +3329,127 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="55" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="39">
         <v>24</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="55" t="s">
+      <c r="J26" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56" t="s">
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="Q26" s="39">
         <v>10</v>
       </c>
-      <c r="R26" s="56" t="s">
+      <c r="R26" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S26" s="58" t="s">
+      <c r="S26" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="T26" s="58" t="s">
+      <c r="T26" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="U26" s="56" t="s">
+      <c r="U26" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="V26" s="41" t="s">
+      <c r="V26" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W26" s="52" t="s">
+      <c r="W26" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="X26" s="52" t="s">
+      <c r="X26" s="35" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="43" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="28">
         <v>25</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="L27" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="46" t="s">
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="30">
         <v>10</v>
       </c>
-      <c r="R27" s="46" t="s">
+      <c r="R27" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="47" t="s">
+      <c r="S27" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="47" t="s">
+      <c r="T27" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="U27" s="46" t="s">
+      <c r="U27" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="V27" s="41" t="s">
+      <c r="V27" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W27" s="48">
+      <c r="W27" s="32">
         <v>42402</v>
       </c>
       <c r="X27" t="s">
@@ -3501,63 +3457,63 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="43" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="30">
         <v>26</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="46" t="s">
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="30">
         <v>10</v>
       </c>
-      <c r="R28" s="46" t="s">
+      <c r="R28" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S28" s="47" t="s">
+      <c r="S28" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="T28" s="47" t="s">
+      <c r="T28" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="U28" s="46" t="s">
+      <c r="U28" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="V28" s="41" t="s">
+      <c r="V28" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W28" s="48">
+      <c r="W28" s="32">
         <v>42402</v>
       </c>
       <c r="X28" t="s">
@@ -3565,63 +3521,63 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="43" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="28">
         <v>27</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L29" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="46" t="s">
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="30">
         <v>10</v>
       </c>
-      <c r="R29" s="46" t="s">
+      <c r="R29" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="47" t="s">
+      <c r="S29" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="47" t="s">
+      <c r="T29" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="U29" s="46" t="s">
+      <c r="U29" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="V29" s="41" t="s">
+      <c r="V29" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="W29" s="48">
+      <c r="W29" s="32">
         <v>42402</v>
       </c>
       <c r="X29" t="s">
@@ -3629,122 +3585,122 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="13">
         <v>28</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="26" t="s">
+      <c r="N30" s="12"/>
+      <c r="O30" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="28" t="s">
+      <c r="P30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="13">
         <v>6</v>
       </c>
-      <c r="R30" s="28" t="s">
+      <c r="R30" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="S30" s="29" t="s">
+      <c r="S30" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="T30" s="30" t="s">
+      <c r="T30" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="U30" s="28" t="s">
+      <c r="U30" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="V30" s="52" t="s">
+      <c r="V30" s="35" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="90" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="91">
+      <c r="H31" s="49">
         <v>29</v>
       </c>
-      <c r="I31" s="92" t="s">
+      <c r="I31" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="90" t="s">
+      <c r="J31" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="92" t="s">
+      <c r="K31" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="92" t="s">
+      <c r="L31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="93" t="s">
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="93">
+      <c r="Q31" s="51">
         <v>10</v>
       </c>
-      <c r="R31" s="93" t="s">
+      <c r="R31" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="S31" s="94" t="s">
+      <c r="S31" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="T31" s="94" t="s">
+      <c r="T31" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="U31" s="93" t="s">
+      <c r="U31" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="V31" s="40" t="s">
+      <c r="V31" s="24" t="s">
         <v>245</v>
       </c>
       <c r="X31" t="s">
@@ -3752,622 +3708,645 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="39">
         <v>30</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="27" t="s">
+      <c r="L32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="28" t="s">
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="39">
         <v>10</v>
       </c>
-      <c r="R32" s="28" t="s">
+      <c r="R32" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="29" t="s">
+      <c r="S32" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="T32" s="29" t="s">
+      <c r="T32" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="U32" s="28" t="s">
+      <c r="U32" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="V32" s="40" t="s">
+      <c r="V32" s="25" t="s">
         <v>245</v>
       </c>
+      <c r="W32" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="X32" s="35" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="79">
         <v>31</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="L33" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="27" t="s">
+      <c r="M33" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="26" t="s">
+      <c r="N33" s="12"/>
+      <c r="O33" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="P33" s="28" t="s">
+      <c r="P33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="13">
         <v>6</v>
       </c>
-      <c r="R33" s="28" t="s">
+      <c r="R33" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S33" s="29" t="s">
+      <c r="S33" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="T33" s="30" t="s">
+      <c r="T33" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="U33" s="28" t="s">
+      <c r="U33" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="V33" s="52" t="s">
+      <c r="V33" s="35" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="30">
         <v>32</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="28" t="s">
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="30">
         <v>10</v>
       </c>
-      <c r="R34" s="28" t="s">
+      <c r="R34" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="S34" s="29" t="s">
+      <c r="S34" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="T34" s="29" t="s">
+      <c r="T34" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="U34" s="28" t="s">
+      <c r="U34" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="V34" s="40" t="s">
+      <c r="V34" s="25" t="s">
         <v>245</v>
       </c>
+      <c r="W34" s="32">
+        <v>42402</v>
+      </c>
+      <c r="X34" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="37">
         <v>33</v>
       </c>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L35" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="34" t="s">
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="39">
         <v>10</v>
       </c>
-      <c r="R35" s="34" t="s">
+      <c r="R35" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="S35" s="35" t="s">
+      <c r="S35" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="T35" s="35" t="s">
+      <c r="T35" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="U35" s="34" t="s">
+      <c r="U35" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="V35" s="40" t="s">
+      <c r="V35" s="25" t="s">
         <v>245</v>
       </c>
+      <c r="W35" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="X35" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="39">
         <v>34</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="34" t="s">
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="34"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="79">
         <v>35</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33" t="s">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="O37" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="P37" s="34" t="s">
+      <c r="P37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="13">
         <v>6</v>
       </c>
-      <c r="R37" s="34" t="s">
+      <c r="R37" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="S37" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T37" s="36" t="s">
+      <c r="T37" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="U37" s="34" t="s">
+      <c r="U37" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="V37" s="53" t="s">
+      <c r="V37" s="36" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="13">
         <v>36</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33" t="s">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="32" t="s">
+      <c r="O38" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="P38" s="34" t="s">
+      <c r="P38" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="13">
         <v>6</v>
       </c>
-      <c r="R38" s="34" t="s">
+      <c r="R38" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S38" s="35" t="s">
+      <c r="S38" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T38" s="36" t="s">
+      <c r="T38" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="U38" s="34" t="s">
+      <c r="U38" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="V38" s="53" t="s">
+      <c r="V38" s="36" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="13"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="16"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="13"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="16"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="13"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="14"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="11"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="14" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="14"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="11"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="14" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="14"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="11"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="14"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="11"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="11"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="11"/>
       <c r="V47" s="1" t="s">
         <v>253</v>
       </c>
@@ -4382,27 +4361,27 @@
       </c>
     </row>
     <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="14"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="11"/>
       <c r="W48" t="s">
         <v>8</v>
       </c>
@@ -4411,556 +4390,556 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="14"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="11"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="14"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="11"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="14"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="11"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="14"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="11"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="14"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="14"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="11"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="14"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="11"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="14"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="11"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="14"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="11"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="14"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="11"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="14"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="11"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="14"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="11"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="14"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="11"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="14"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="11"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="14"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="11"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="14"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="11"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="14"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="11"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="14"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="11"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="14"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="11"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="14"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="11"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="14"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="11"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="14"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="11"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="14"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="11"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="14"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="11"/>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5325,6 +5304,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5339,12 +5324,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1320,16 +1320,47 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,37 +1402,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,9 +1708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,65 +1742,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="55" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="70" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1814,31 +1814,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="71"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
       <c r="S4" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="53" t="s">
         <v>194</v>
       </c>
       <c r="U4" s="13" t="s">
@@ -1985,7 +1985,7 @@
       <c r="G5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="54">
         <v>3</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2015,7 +2015,7 @@
       <c r="S5" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="53" t="s">
         <v>205</v>
       </c>
       <c r="U5" s="13" t="s">
@@ -2077,7 +2077,7 @@
       <c r="S6" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="T6" s="78" t="s">
+      <c r="T6" s="53" t="s">
         <v>200</v>
       </c>
       <c r="U6" s="13" t="s">
@@ -2105,7 +2105,7 @@
       <c r="G7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="54">
         <v>5</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2139,7 +2139,7 @@
       <c r="S7" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T7" s="78" t="s">
+      <c r="T7" s="53" t="s">
         <v>194</v>
       </c>
       <c r="U7" s="13" t="s">
@@ -2203,7 +2203,7 @@
       <c r="S8" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="78" t="s">
+      <c r="T8" s="53" t="s">
         <v>202</v>
       </c>
       <c r="U8" s="13" t="s">
@@ -3251,7 +3251,7 @@
       <c r="S24" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="78" t="s">
+      <c r="T24" s="53" t="s">
         <v>203</v>
       </c>
       <c r="U24" s="13" t="s">
@@ -3636,7 +3636,7 @@
       <c r="S30" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="T30" s="78" t="s">
+      <c r="T30" s="53" t="s">
         <v>204</v>
       </c>
       <c r="U30" s="13" t="s">
@@ -3789,7 +3789,7 @@
       <c r="G33" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="79">
+      <c r="H33" s="54">
         <v>31</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3823,7 +3823,7 @@
       <c r="S33" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="T33" s="78" t="s">
+      <c r="T33" s="53" t="s">
         <v>228</v>
       </c>
       <c r="U33" s="13" t="s">
@@ -4007,8 +4007,8 @@
       <c r="S36" s="41"/>
       <c r="T36" s="41"/>
       <c r="U36" s="39"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="80"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
       <c r="X36" t="s">
         <v>251</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="G37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="79">
+      <c r="H37" s="54">
         <v>35</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -4065,7 +4065,7 @@
       <c r="S37" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T37" s="78" t="s">
+      <c r="T37" s="53" t="s">
         <v>194</v>
       </c>
       <c r="U37" s="13" t="s">
@@ -4127,7 +4127,7 @@
       <c r="S38" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="T38" s="78" t="s">
+      <c r="T38" s="53" t="s">
         <v>206</v>
       </c>
       <c r="U38" s="13" t="s">
@@ -5304,12 +5304,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5324,6 +5318,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="263">
   <si>
     <t>Asignatura</t>
   </si>
@@ -702,9 +702,6 @@
     <t>Practica la representación de rectas y parábolas con Geogebra</t>
   </si>
   <si>
-    <t>Introducción a las funciones y gráficas</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las funciones cuadráticas</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
     <t>Solicitud gráfica</t>
   </si>
   <si>
-    <t>Interactivos</t>
-  </si>
-  <si>
     <t>Interactivo para aprender a representar gráficamente las funciones lineales y las funciones afines</t>
   </si>
   <si>
@@ -891,9 +885,6 @@
     <t>Actividad que permite clasificar distintos tipos de funciones</t>
   </si>
   <si>
-    <t>Josué 25</t>
-  </si>
-  <si>
     <t>NO necesita</t>
   </si>
   <si>
@@ -909,23 +900,32 @@
     <t>Cristhian Fuentes</t>
   </si>
   <si>
-    <t>Enviado a Pedro para cambiar fraese "españolas"</t>
-  </si>
-  <si>
     <t>No se pueden dejar los números sin cursiva</t>
   </si>
   <si>
     <t>la k no se puede dejar en cursiva</t>
   </si>
   <si>
-    <t>Cambio de recurso pedido a Oliver 02/02/2016</t>
+    <t>Introducción a las funciones y las gráficas</t>
+  </si>
+  <si>
+    <t>La ecuación de la recta que pasa por dos puntos</t>
+  </si>
+  <si>
+    <t>faltan 10</t>
+  </si>
+  <si>
+    <t>proceso 6</t>
+  </si>
+  <si>
+    <t>proceso 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,8 +989,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,14 +1107,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1190,11 +1192,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1248,9 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1307,19 +1382,6 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1327,40 +1389,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,6 +1439,49 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1708,9 +1789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,103 +1823,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="56" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="X1" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="X1" s="33" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="73"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="68"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1852,56 +1933,56 @@
         <v>123</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="42">
         <v>1</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="45">
         <v>10</v>
       </c>
-      <c r="R3" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="S3" s="47" t="s">
+      <c r="R3" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W3" s="42">
+      <c r="T3" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W3" s="41">
         <v>42394</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="33">
         <v>42394</v>
       </c>
     </row>
@@ -1930,7 +2011,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>20</v>
@@ -1952,19 +2033,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="U4" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>256</v>
+      <c r="V4" s="34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -1985,14 +2066,14 @@
       <c r="G5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="48">
         <v>3</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>20</v>
@@ -2010,19 +2091,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S5" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="T5" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="V5" s="35" t="s">
-        <v>258</v>
+      <c r="V5" s="34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2072,19 +2153,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="T6" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="T6" s="53" t="s">
+      <c r="U6" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="V6" s="35" t="s">
-        <v>257</v>
+      <c r="V6" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2105,7 +2186,7 @@
       <c r="G7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="48">
         <v>5</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2134,19 +2215,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S7" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="T7" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="T7" s="53" t="s">
+      <c r="U7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U7" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>256</v>
+      <c r="V7" s="34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2167,7 +2248,7 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" s="13">
         <v>6</v>
@@ -2176,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>20</v>
@@ -2198,19 +2279,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>202</v>
+      <c r="T8" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V8" s="35" t="s">
-        <v>256</v>
+        <v>194</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2228,59 +2309,57 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>7</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="38">
+        <v>10</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>10</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="S9" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="V9" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W9" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="X9" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB9" s="26">
-        <v>42547</v>
-      </c>
+      <c r="W9" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB9" s="25"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -2297,62 +2376,60 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>8</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="K10" s="40" t="s">
+      <c r="J10" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="38" t="s">
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="38">
         <v>10</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="41" t="s">
+      <c r="S10" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="T10" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="U10" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="V10" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W10" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="X10" s="35" t="s">
-        <v>251</v>
+      <c r="U10" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="Y10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB10" s="26">
-        <v>42395</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="AB10" s="25"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2369,53 +2446,53 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>9</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="K11" s="40" t="s">
+      <c r="J11" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39" t="s">
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="38">
         <v>10</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="T11" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="S11" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="T11" s="41" t="s">
+      <c r="U11" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="U11" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="V11" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W11" s="42">
+      <c r="V11" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W11" s="41">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2433,53 +2510,53 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>10</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="38">
         <v>10</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S12" s="41" t="s">
+      <c r="S12" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="T12" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="V12" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W12" s="42">
+      <c r="U12" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W12" s="41">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2497,56 +2574,56 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>11</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="40" t="s">
+      <c r="J13" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="39" t="s">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="38">
         <v>10</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S13" s="41" t="s">
+      <c r="S13" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="T13" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="U13" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="V13" s="25" t="s">
-        <v>245</v>
+      <c r="U13" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="W13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2564,53 +2641,53 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="38">
         <v>12</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="K14" s="40" t="s">
+      <c r="J14" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39" t="s">
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="38">
         <v>10</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="S14" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="41" t="s">
+      <c r="T14" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="U14" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="V14" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W14" s="42">
+      <c r="U14" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W14" s="41">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2628,53 +2705,53 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>13</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="K15" s="40" t="s">
+      <c r="J15" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39" t="s">
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="38">
         <v>10</v>
       </c>
-      <c r="R15" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="S15" s="41" t="s">
+      <c r="R15" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="S15" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="T15" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="V15" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W15" s="42">
+      <c r="U15" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W15" s="41">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2692,53 +2769,53 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="38">
+        <v>14</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>10</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S16" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="39">
-        <v>14</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="39">
-        <v>10</v>
-      </c>
-      <c r="R16" s="39" t="s">
+      <c r="U16" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="S16" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="T16" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="V16" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W16" s="42">
+      <c r="V16" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W16" s="41">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2756,53 +2833,53 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="37">
+      <c r="G17" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="36">
         <v>15</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="39" t="s">
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="38">
         <v>10</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="41" t="s">
+      <c r="S17" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="V17" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W17" s="42">
+      <c r="T17" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W17" s="41">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2820,56 +2897,56 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>16</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39" t="s">
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="38">
         <v>10</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="41" t="s">
+      <c r="S18" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T18" s="41" t="s">
+      <c r="T18" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="V18" s="25" t="s">
-        <v>245</v>
+      <c r="U18" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="W18" t="s">
+        <v>249</v>
+      </c>
+      <c r="X18" t="s">
         <v>251</v>
       </c>
-      <c r="X18" t="s">
-        <v>254</v>
-      </c>
       <c r="Y18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2887,56 +2964,56 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>17</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="K19" s="40" t="s">
+      <c r="J19" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39" t="s">
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="38">
         <v>10</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="U19" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="S19" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="T19" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="V19" s="25" t="s">
-        <v>245</v>
+      <c r="V19" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="W19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2954,53 +3031,53 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="39">
+      <c r="G20" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="38">
         <v>18</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="K20" s="40" t="s">
+      <c r="J20" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="39" t="s">
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="38">
         <v>10</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S20" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="T20" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="U20" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="S20" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="T20" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="V20" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W20" s="42">
+      <c r="V20" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W20" s="41">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3018,53 +3095,53 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="37">
+      <c r="G21" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="36">
         <v>19</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="K21" s="40" t="s">
+      <c r="J21" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39" t="s">
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="38">
         <v>10</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S21" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="T21" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="U21" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="S21" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="T21" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="V21" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W21" s="42">
+      <c r="V21" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W21" s="41">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3082,55 +3159,55 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="38">
         <v>20</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="P22" s="39" t="s">
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="P22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="38">
         <v>10</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="S22" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="T22" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="U22" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="S22" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="T22" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="V22" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W22" s="42">
+      <c r="V22" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W22" s="41">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3148,53 +3225,53 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" s="27">
+        <v>21</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="H23" s="28">
-        <v>21</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="30" t="s">
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="29">
         <v>10</v>
       </c>
-      <c r="R23" s="30" t="s">
+      <c r="R23" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="31" t="s">
+      <c r="S23" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="T23" s="31" t="s">
+      <c r="T23" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="V23" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W23" s="32">
+      <c r="U23" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="V23" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W23" s="31">
         <v>42401</v>
       </c>
       <c r="X23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3224,7 +3301,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>20</v>
@@ -3246,19 +3323,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S24" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="T24" s="53" t="s">
-        <v>203</v>
+      <c r="T24" s="47" t="s">
+        <v>202</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V24" s="35" t="s">
-        <v>256</v>
+        <v>194</v>
+      </c>
+      <c r="V24" s="34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3276,56 +3353,53 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>23</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39" t="s">
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="38">
         <v>10</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S25" s="41" t="s">
+      <c r="S25" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="T25" s="41" t="s">
+      <c r="T25" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="U25" s="39" t="s">
+      <c r="U25" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="V25" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W25" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="X25" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>259</v>
+      <c r="V25" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W25" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" s="34" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3343,53 +3417,53 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="38">
         <v>24</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="K26" s="40" t="s">
+      <c r="J26" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="L26" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39" t="s">
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="38">
         <v>10</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S26" s="41" t="s">
+      <c r="S26" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="T26" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="U26" s="39" t="s">
+      <c r="U26" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="V26" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W26" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="X26" s="35" t="s">
-        <v>251</v>
+      <c r="V26" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W26" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" s="34" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3407,53 +3481,53 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>25</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="K27" s="29" t="s">
+      <c r="J27" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="30" t="s">
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="29">
         <v>10</v>
       </c>
-      <c r="R27" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="S27" s="31" t="s">
+      <c r="R27" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="V27" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W27" s="32">
+      <c r="T27" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="U27" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W27" s="31">
         <v>42402</v>
       </c>
       <c r="X27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3471,53 +3545,53 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="29">
         <v>26</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="K28" s="29" t="s">
+      <c r="J28" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="30" t="s">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="29">
         <v>10</v>
       </c>
-      <c r="R28" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="S28" s="31" t="s">
+      <c r="R28" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="S28" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="T28" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="U28" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="V28" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W28" s="32">
+      <c r="T28" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="U28" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W28" s="31">
         <v>42402</v>
       </c>
       <c r="X28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3535,53 +3609,53 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <v>27</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="30" t="s">
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="29">
         <v>10</v>
       </c>
-      <c r="R29" s="30" t="s">
+      <c r="R29" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="31" t="s">
+      <c r="S29" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="31" t="s">
+      <c r="T29" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="U29" s="30" t="s">
+      <c r="U29" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="V29" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W29" s="32">
+      <c r="V29" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W29" s="31">
         <v>42402</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3631,19 +3705,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="S30" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="S30" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="T30" s="53" t="s">
-        <v>204</v>
+      <c r="T30" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="V30" s="35" t="s">
-        <v>257</v>
+        <v>200</v>
+      </c>
+      <c r="V30" s="34" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3661,50 +3735,53 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="27">
+        <v>29</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="49">
-        <v>29</v>
-      </c>
-      <c r="I31" s="50" t="s">
+      <c r="K31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="K31" s="50" t="s">
+      <c r="L31" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="29">
         <v>10</v>
       </c>
-      <c r="R31" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="S31" s="52" t="s">
+      <c r="R31" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="S31" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="T31" s="52" t="s">
+      <c r="T31" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="U31" s="51" t="s">
-        <v>220</v>
+      <c r="U31" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="V31" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="W31" s="31">
+        <v>42403</v>
       </c>
       <c r="X31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3722,56 +3799,56 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="38">
         <v>30</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="40" t="s">
+      <c r="L32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39" t="s">
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="Q32" s="38">
         <v>10</v>
       </c>
-      <c r="R32" s="39" t="s">
+      <c r="R32" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="41" t="s">
+      <c r="S32" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="T32" s="41" t="s">
+      <c r="T32" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="U32" s="39" t="s">
+      <c r="U32" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="V32" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W32" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="X32" s="35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V32" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W32" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
@@ -3789,7 +3866,7 @@
       <c r="G33" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="48">
         <v>31</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3818,22 +3895,22 @@
         <v>6</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S33" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="T33" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="U33" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="T33" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="V33" s="35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V33" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>15</v>
       </c>
@@ -3850,56 +3927,56 @@
         <v>136</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="29">
         <v>32</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="30" t="s">
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="29">
         <v>10</v>
       </c>
-      <c r="R34" s="30" t="s">
+      <c r="R34" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="S34" s="31" t="s">
+      <c r="S34" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="T34" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="U34" s="30" t="s">
+      <c r="T34" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="U34" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="V34" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W34" s="32">
+      <c r="V34" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W34" s="31">
         <v>42402</v>
       </c>
       <c r="X34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -3914,56 +3991,56 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" s="37">
+      <c r="G35" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" s="36">
         <v>33</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="K35" s="40" t="s">
+      <c r="J35" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="40" t="s">
+      <c r="L35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="39" t="s">
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="39">
+      <c r="Q35" s="38">
         <v>10</v>
       </c>
-      <c r="R35" s="39" t="s">
+      <c r="R35" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="S35" s="41" t="s">
+      <c r="S35" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T35" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="V35" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="W35" s="25" t="s">
-        <v>251</v>
+      <c r="T35" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="V35" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="W35" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="X35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
@@ -3978,42 +4055,42 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="38">
         <v>34</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="40" t="s">
+      <c r="L36" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="39" t="s">
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
       <c r="X36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
@@ -4031,7 +4108,7 @@
       <c r="G37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="48">
         <v>35</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -4060,22 +4137,22 @@
         <v>6</v>
       </c>
       <c r="R37" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S37" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="T37" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="T37" s="53" t="s">
+      <c r="U37" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V37" s="36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V37" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -4122,22 +4199,22 @@
         <v>6</v>
       </c>
       <c r="R38" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="S38" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="S38" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="T38" s="53" t="s">
-        <v>206</v>
+      <c r="T38" s="47" t="s">
+        <v>205</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="V38" s="36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="V38" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4160,7 +4237,7 @@
       <c r="T39" s="14"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4183,7 +4260,7 @@
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4204,9 +4281,16 @@
       <c r="R41" s="13"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="13"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U41" s="75"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="X41" s="79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4227,9 +4311,18 @@
       <c r="R42" s="11"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="11"/>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U42" s="76"/>
+      <c r="V42" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="W42" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="X42" s="81" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4240,7 +4333,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="12"/>
       <c r="J43" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
@@ -4254,7 +4347,7 @@
       <c r="T43" s="14"/>
       <c r="U43" s="11"/>
     </row>
-    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4265,7 +4358,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="12"/>
       <c r="J44" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -4279,7 +4372,7 @@
       <c r="T44" s="14"/>
       <c r="U44" s="11"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4302,7 +4395,7 @@
       <c r="T45" s="14"/>
       <c r="U45" s="11"/>
     </row>
-    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4325,7 +4418,7 @@
       <c r="T46" s="14"/>
       <c r="U46" s="11"/>
     </row>
-    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4347,20 +4440,8 @@
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="11"/>
-      <c r="V47" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W47" t="s">
-        <v>249</v>
-      </c>
-      <c r="X47">
-        <v>8</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4382,12 +4463,6 @@
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="11"/>
-      <c r="W48" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48">
-        <v>17</v>
-      </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
@@ -5304,6 +5379,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5318,12 +5399,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="264">
   <si>
     <t>Asignatura</t>
   </si>
@@ -915,10 +915,13 @@
     <t>faltan 10</t>
   </si>
   <si>
-    <t>proceso 6</t>
-  </si>
-  <si>
     <t>proceso 1</t>
+  </si>
+  <si>
+    <t>Listos 26</t>
+  </si>
+  <si>
+    <t>Faltan 10</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1331,20 +1334,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1389,16 +1378,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,49 +1471,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,9 +1778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomLeft" activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,65 +1812,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="52" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1890,36 +1879,36 @@
       <c r="W1" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="26" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="59"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="68"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1937,52 +1926,52 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="36">
         <v>1</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="39">
         <v>10</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="S3" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="T3" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="U3" s="45" t="s">
+      <c r="U3" s="39" t="s">
         <v>219</v>
       </c>
       <c r="V3" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W3" s="41">
+      <c r="W3" s="35">
         <v>42394</v>
       </c>
-      <c r="X3" s="33">
+      <c r="X3" s="27">
         <v>42394</v>
       </c>
     </row>
@@ -2038,13 +2027,13 @@
       <c r="S4" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="41" t="s">
         <v>193</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="V4" s="28" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2066,7 +2055,7 @@
       <c r="G5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="42">
         <v>3</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2096,13 +2085,13 @@
       <c r="S5" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="41" t="s">
         <v>204</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="28" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2158,13 +2147,13 @@
       <c r="S6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="T6" s="47" t="s">
+      <c r="T6" s="41" t="s">
         <v>199</v>
       </c>
       <c r="U6" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="28" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2186,7 +2175,7 @@
       <c r="G7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="42">
         <v>5</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2220,13 +2209,13 @@
       <c r="S7" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="41" t="s">
         <v>193</v>
       </c>
       <c r="U7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="V7" s="34" t="s">
+      <c r="V7" s="28" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2284,13 +2273,13 @@
       <c r="S8" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="T8" s="47" t="s">
+      <c r="T8" s="41" t="s">
         <v>201</v>
       </c>
       <c r="U8" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="V8" s="34" t="s">
+      <c r="V8" s="28" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2309,54 +2298,54 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="30">
         <v>7</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="37" t="s">
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="32">
         <v>10</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S9" s="40" t="s">
+      <c r="S9" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="T9" s="40" t="s">
+      <c r="T9" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U9" s="32" t="s">
         <v>185</v>
       </c>
       <c r="V9" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="W9" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="X9" s="34" t="s">
+      <c r="X9" s="28" t="s">
         <v>249</v>
       </c>
       <c r="AB9" s="25"/>
@@ -2376,54 +2365,54 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="32">
         <v>8</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="37" t="s">
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="32">
         <v>10</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V10" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="X10" s="34" t="s">
+      <c r="X10" s="28" t="s">
         <v>249</v>
       </c>
       <c r="Y10" t="s">
@@ -2446,49 +2435,49 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="30">
         <v>9</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38" t="s">
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="32">
         <v>10</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="S11" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T11" s="40" t="s">
+      <c r="T11" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="32" t="s">
         <v>219</v>
       </c>
       <c r="V11" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W11" s="41">
+      <c r="W11" s="35">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
@@ -2510,49 +2499,49 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="32">
         <v>10</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38" t="s">
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="32">
         <v>10</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S12" s="40" t="s">
+      <c r="S12" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V12" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W12" s="41">
+      <c r="W12" s="35">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
@@ -2574,43 +2563,43 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="30">
         <v>11</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38" t="s">
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="32">
         <v>10</v>
       </c>
-      <c r="R13" s="38" t="s">
+      <c r="R13" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S13" s="40" t="s">
+      <c r="S13" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="40" t="s">
+      <c r="T13" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="U13" s="38" t="s">
+      <c r="U13" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V13" s="24" t="s">
@@ -2641,49 +2630,49 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="32">
         <v>12</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38" t="s">
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="32">
         <v>10</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="40" t="s">
+      <c r="S14" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="40" t="s">
+      <c r="T14" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V14" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W14" s="41">
+      <c r="W14" s="35">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
@@ -2705,49 +2694,49 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="30">
         <v>13</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38" t="s">
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="32">
         <v>10</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="S15" s="40" t="s">
+      <c r="S15" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="40" t="s">
+      <c r="T15" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="32" t="s">
         <v>219</v>
       </c>
       <c r="V15" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W15" s="41">
+      <c r="W15" s="35">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
@@ -2769,49 +2758,49 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="32">
         <v>14</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38" t="s">
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="32">
         <v>10</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="S16" s="40" t="s">
+      <c r="S16" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T16" s="40" t="s">
+      <c r="T16" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="U16" s="38" t="s">
+      <c r="U16" s="32" t="s">
         <v>221</v>
       </c>
       <c r="V16" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W16" s="41">
+      <c r="W16" s="35">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
@@ -2833,49 +2822,49 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="30">
         <v>15</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38" t="s">
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="32">
         <v>10</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="40" t="s">
+      <c r="S17" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="40" t="s">
+      <c r="T17" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V17" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W17" s="41">
+      <c r="W17" s="35">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
@@ -2897,43 +2886,43 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="32">
         <v>16</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38" t="s">
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="32">
         <v>10</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="40" t="s">
+      <c r="S18" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T18" s="40" t="s">
+      <c r="T18" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="U18" s="38" t="s">
+      <c r="U18" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V18" s="24" t="s">
@@ -2964,43 +2953,43 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="30">
         <v>17</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38" t="s">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="32">
         <v>10</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="40" t="s">
+      <c r="S19" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T19" s="40" t="s">
+      <c r="T19" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="U19" s="38" t="s">
+      <c r="U19" s="32" t="s">
         <v>221</v>
       </c>
       <c r="V19" s="24" t="s">
@@ -3031,49 +3020,49 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="32">
         <v>18</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38" t="s">
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="32">
         <v>10</v>
       </c>
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="S20" s="40" t="s">
+      <c r="S20" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="40" t="s">
+      <c r="T20" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="U20" s="38" t="s">
+      <c r="U20" s="32" t="s">
         <v>221</v>
       </c>
       <c r="V20" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W20" s="41">
+      <c r="W20" s="35">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
@@ -3095,49 +3084,49 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="30">
         <v>19</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38" t="s">
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="32">
         <v>10</v>
       </c>
-      <c r="R21" s="38" t="s">
+      <c r="R21" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="S21" s="40" t="s">
+      <c r="S21" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="40" t="s">
+      <c r="T21" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="U21" s="38" t="s">
+      <c r="U21" s="32" t="s">
         <v>221</v>
       </c>
       <c r="V21" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W21" s="41">
+      <c r="W21" s="35">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
@@ -3159,51 +3148,51 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="32">
         <v>20</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="37" t="s">
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="P22" s="38" t="s">
+      <c r="P22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="32">
         <v>10</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="S22" s="40" t="s">
+      <c r="S22" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T22" s="40" t="s">
+      <c r="T22" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="32" t="s">
         <v>221</v>
       </c>
       <c r="V22" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W22" s="41">
+      <c r="W22" s="35">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
@@ -3225,49 +3214,49 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="30">
         <v>21</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="29" t="s">
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="32">
         <v>10</v>
       </c>
-      <c r="R23" s="29" t="s">
+      <c r="R23" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="29" t="s">
+      <c r="U23" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V23" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W23" s="31">
+      <c r="W23" s="35">
         <v>42401</v>
       </c>
       <c r="X23" t="s">
@@ -3328,13 +3317,13 @@
       <c r="S24" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="T24" s="47" t="s">
+      <c r="T24" s="41" t="s">
         <v>202</v>
       </c>
       <c r="U24" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="V24" s="34" t="s">
+      <c r="V24" s="28" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3353,52 +3342,52 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="30">
         <v>23</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38" t="s">
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="32">
         <v>10</v>
       </c>
-      <c r="R25" s="38" t="s">
+      <c r="R25" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S25" s="40" t="s">
+      <c r="S25" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="T25" s="40" t="s">
+      <c r="T25" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="U25" s="38" t="s">
+      <c r="U25" s="32" t="s">
         <v>185</v>
       </c>
       <c r="V25" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W25" s="34" t="s">
+      <c r="W25" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="X25" s="34" t="s">
+      <c r="X25" s="28" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3417,52 +3406,52 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="32">
         <v>24</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38" t="s">
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="32">
         <v>10</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R26" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S26" s="40" t="s">
+      <c r="S26" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="T26" s="40" t="s">
+      <c r="T26" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="U26" s="38" t="s">
+      <c r="U26" s="32" t="s">
         <v>185</v>
       </c>
       <c r="V26" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W26" s="34" t="s">
+      <c r="W26" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="X26" s="34" t="s">
+      <c r="X26" s="28" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3481,49 +3470,49 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="30">
         <v>25</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="29" t="s">
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="32">
         <v>10</v>
       </c>
-      <c r="R27" s="29" t="s">
+      <c r="R27" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="30" t="s">
+      <c r="S27" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="30" t="s">
+      <c r="T27" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="U27" s="29" t="s">
+      <c r="U27" s="32" t="s">
         <v>219</v>
       </c>
       <c r="V27" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W27" s="31">
+      <c r="W27" s="35">
         <v>42402</v>
       </c>
       <c r="X27" t="s">
@@ -3545,49 +3534,49 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="32">
         <v>26</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="29" t="s">
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="32">
         <v>10</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="30" t="s">
+      <c r="S28" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T28" s="30" t="s">
+      <c r="T28" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="U28" s="29" t="s">
+      <c r="U28" s="32" t="s">
         <v>219</v>
       </c>
       <c r="V28" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W28" s="31">
+      <c r="W28" s="35">
         <v>42402</v>
       </c>
       <c r="X28" t="s">
@@ -3609,49 +3598,49 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="30">
         <v>27</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="K29" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="29" t="s">
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="Q29" s="32">
         <v>10</v>
       </c>
-      <c r="R29" s="29" t="s">
+      <c r="R29" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="30" t="s">
+      <c r="S29" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="T29" s="30" t="s">
+      <c r="T29" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="U29" s="29" t="s">
+      <c r="U29" s="32" t="s">
         <v>185</v>
       </c>
       <c r="V29" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W29" s="31">
+      <c r="W29" s="35">
         <v>42402</v>
       </c>
       <c r="X29" t="s">
@@ -3710,13 +3699,13 @@
       <c r="S30" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="T30" s="47" t="s">
+      <c r="T30" s="41" t="s">
         <v>203</v>
       </c>
       <c r="U30" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="V30" s="34" t="s">
+      <c r="V30" s="28" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3735,49 +3724,49 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="30">
         <v>29</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="29" t="s">
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="Q31" s="32">
         <v>10</v>
       </c>
-      <c r="R31" s="29" t="s">
+      <c r="R31" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="S31" s="30" t="s">
+      <c r="S31" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="T31" s="30" t="s">
+      <c r="T31" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="U31" s="29" t="s">
+      <c r="U31" s="32" t="s">
         <v>219</v>
       </c>
       <c r="V31" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W31" s="31">
+      <c r="W31" s="35">
         <v>42403</v>
       </c>
       <c r="X31" t="s">
@@ -3799,52 +3788,52 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="32">
         <v>30</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38" t="s">
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="32">
         <v>10</v>
       </c>
-      <c r="R32" s="38" t="s">
+      <c r="R32" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="40" t="s">
+      <c r="S32" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="T32" s="40" t="s">
+      <c r="T32" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="U32" s="38" t="s">
+      <c r="U32" s="32" t="s">
         <v>185</v>
       </c>
       <c r="V32" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W32" s="34" t="s">
+      <c r="W32" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="X32" s="34" t="s">
+      <c r="X32" s="28" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3866,7 +3855,7 @@
       <c r="G33" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="42">
         <v>31</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3900,13 +3889,13 @@
       <c r="S33" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="T33" s="47" t="s">
+      <c r="T33" s="41" t="s">
         <v>227</v>
       </c>
       <c r="U33" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="V33" s="34" t="s">
+      <c r="V33" s="28" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3927,49 +3916,49 @@
         <v>136</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="32">
         <v>32</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="29" t="s">
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="32">
         <v>10</v>
       </c>
-      <c r="R34" s="29" t="s">
+      <c r="R34" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S34" s="30" t="s">
+      <c r="S34" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="T34" s="30" t="s">
+      <c r="T34" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="U34" s="29" t="s">
+      <c r="U34" s="32" t="s">
         <v>185</v>
       </c>
       <c r="V34" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="W34" s="31">
+      <c r="W34" s="35">
         <v>42402</v>
       </c>
       <c r="X34" t="s">
@@ -3991,43 +3980,43 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="30">
         <v>33</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="37" t="s">
+      <c r="J35" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="38" t="s">
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="Q35" s="32">
         <v>10</v>
       </c>
-      <c r="R35" s="38" t="s">
+      <c r="R35" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S35" s="40" t="s">
+      <c r="S35" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="T35" s="40" t="s">
+      <c r="T35" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="U35" s="38" t="s">
+      <c r="U35" s="32" t="s">
         <v>216</v>
       </c>
       <c r="V35" s="24" t="s">
@@ -4055,37 +4044,37 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="32">
         <v>34</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="38" t="s">
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
       <c r="X36" t="s">
         <v>249</v>
       </c>
@@ -4108,7 +4097,7 @@
       <c r="G37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="42">
         <v>35</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -4142,13 +4131,13 @@
       <c r="S37" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="T37" s="47" t="s">
+      <c r="T37" s="41" t="s">
         <v>193</v>
       </c>
       <c r="U37" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="V37" s="35" t="s">
+      <c r="V37" s="29" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4204,13 +4193,13 @@
       <c r="S38" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="T38" s="47" t="s">
+      <c r="T38" s="41" t="s">
         <v>205</v>
       </c>
       <c r="U38" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="V38" s="35" t="s">
+      <c r="V38" s="29" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4259,6 +4248,12 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
+      <c r="V40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="W40" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="41" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
@@ -4281,13 +4276,11 @@
       <c r="R41" s="13"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="77"/>
-      <c r="W41" s="78" t="s">
+      <c r="U41" s="44"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="48" t="s">
         <v>261</v>
-      </c>
-      <c r="X41" s="79" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4311,14 +4304,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="80" t="s">
+      <c r="U42" s="45"/>
+      <c r="V42" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="W42" s="78" t="s">
+      <c r="W42" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="X42" s="81" t="s">
+      <c r="X42" s="50" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5379,12 +5372,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5399,6 +5386,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="265">
   <si>
     <t>Asignatura</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>Faltan 10</t>
+  </si>
+  <si>
+    <t>regreso al autor nuevamente 10/02/2016</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1397,40 +1400,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,6 +1450,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,9 +1797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y40" sqref="Y40"/>
+      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,65 +1831,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="51" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="68" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1884,31 +1903,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="69"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2052,47 +2071,50 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="77">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="13" t="s">
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="79">
         <v>6</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="V5" s="24" t="s">
         <v>255</v>
+      </c>
+      <c r="X5" s="27">
+        <v>42410</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3837,7 +3859,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
@@ -3898,8 +3920,11 @@
       <c r="V33" s="28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>15</v>
       </c>
@@ -3965,7 +3990,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -4029,7 +4054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
@@ -4079,7 +4104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
@@ -4141,7 +4166,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -4203,7 +4228,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4226,7 +4251,7 @@
       <c r="T39" s="14"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4255,7 +4280,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4283,7 +4308,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4315,7 +4340,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4340,7 +4365,7 @@
       <c r="T43" s="14"/>
       <c r="U43" s="11"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4365,7 +4390,7 @@
       <c r="T44" s="14"/>
       <c r="U44" s="11"/>
     </row>
-    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4388,7 +4413,7 @@
       <c r="T45" s="14"/>
       <c r="U45" s="11"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4411,7 +4436,7 @@
       <c r="T46" s="14"/>
       <c r="U46" s="11"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4434,7 +4459,7 @@
       <c r="T47" s="14"/>
       <c r="U47" s="11"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5372,6 +5397,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5386,12 +5417,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="268">
   <si>
     <t>Asignatura</t>
   </si>
@@ -915,16 +915,25 @@
     <t>faltan 10</t>
   </si>
   <si>
-    <t>proceso 1</t>
-  </si>
-  <si>
-    <t>Listos 26</t>
-  </si>
-  <si>
     <t>Faltan 10</t>
   </si>
   <si>
     <t>regreso al autor nuevamente 10/02/2016</t>
+  </si>
+  <si>
+    <t>Falta que lo desbloquee, solicitud en correo</t>
+  </si>
+  <si>
+    <t>proceso 3</t>
+  </si>
+  <si>
+    <t>proceso 2</t>
+  </si>
+  <si>
+    <t>faltan 8</t>
+  </si>
+  <si>
+    <t>Listos 28</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1400,16 +1409,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,46 +1500,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,7 +1809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
+      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1829,7 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.5703125" style="10" customWidth="1"/>
@@ -1831,65 +1841,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="53" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="70" t="s">
+      <c r="T1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="59" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1903,31 +1913,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="60"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="69"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2009,51 +2019,57 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="54">
         <v>2</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="54">
         <v>6</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V4" s="24" t="s">
         <v>253</v>
+      </c>
+      <c r="W4" s="82">
+        <v>42412</v>
+      </c>
+      <c r="X4" s="27">
+        <v>42412</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2071,47 +2087,50 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="52">
         <v>3</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="79" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="79">
+      <c r="Q5" s="54">
         <v>6</v>
       </c>
-      <c r="R5" s="79" t="s">
+      <c r="R5" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="T5" s="81" t="s">
+      <c r="T5" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="U5" s="79" t="s">
+      <c r="U5" s="54" t="s">
         <v>196</v>
       </c>
       <c r="V5" s="24" t="s">
         <v>255</v>
+      </c>
+      <c r="W5" s="82">
+        <v>42412</v>
       </c>
       <c r="X5" s="27">
         <v>42410</v>
@@ -2239,6 +2258,9 @@
       </c>
       <c r="V7" s="28" t="s">
         <v>253</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3921,7 +3943,7 @@
         <v>255</v>
       </c>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4274,10 +4296,10 @@
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
       <c r="V40" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="W40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4303,9 +4325,11 @@
       <c r="T41" s="14"/>
       <c r="U41" s="44"/>
       <c r="V41" s="46"/>
-      <c r="W41" s="47"/>
+      <c r="W41" s="47" t="s">
+        <v>265</v>
+      </c>
       <c r="X41" s="48" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4331,7 +4355,7 @@
       <c r="T42" s="14"/>
       <c r="U42" s="45"/>
       <c r="V42" s="49" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="W42" s="47" t="s">
         <v>260</v>
@@ -5397,12 +5421,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5417,6 +5435,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -915,19 +915,19 @@
     <t>regreso al autor nuevamente 10/02/2016</t>
   </si>
   <si>
-    <t>proceso 3</t>
-  </si>
-  <si>
-    <t>Listos 28</t>
-  </si>
-  <si>
     <t>Identifica gráficas de funciones</t>
   </si>
   <si>
-    <t>proceso 4</t>
-  </si>
-  <si>
-    <t>faltan 7</t>
+    <t>proceso 6</t>
+  </si>
+  <si>
+    <t>proceso 7</t>
+  </si>
+  <si>
+    <t>faltan 4</t>
+  </si>
+  <si>
+    <t>Listos 31</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1420,16 +1420,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,29 +1495,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,7 +1806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
+      <selection pane="bottomLeft" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,65 +1838,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="80"/>
+      <c r="O1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="S1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1907,31 +1910,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="67"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="76"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2208,7 +2211,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H7" s="52">
         <v>5</v>
@@ -2277,51 +2280,57 @@
         <v>135</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="54">
         <v>6</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="53"/>
+      <c r="N8" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="54">
         <v>6</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="T8" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="V8" s="24" t="s">
         <v>252</v>
+      </c>
+      <c r="W8" s="57">
+        <v>42414</v>
+      </c>
+      <c r="X8" s="27">
+        <v>42414</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3321,51 +3330,57 @@
         <v>135</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="54">
         <v>22</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
+      <c r="M24" s="53"/>
+      <c r="N24" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="54">
         <v>6</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="T24" s="41" t="s">
+      <c r="T24" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="13" t="s">
+      <c r="U24" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="V24" s="28" t="s">
+      <c r="V24" s="24" t="s">
         <v>252</v>
+      </c>
+      <c r="W24" s="57">
+        <v>42414</v>
+      </c>
+      <c r="X24" s="27">
+        <v>42414</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4138,51 +4153,57 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="52">
         <v>35</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12" t="s">
+      <c r="M37" s="53"/>
+      <c r="N37" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P37" s="13" t="s">
+      <c r="P37" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="54">
         <v>6</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="R37" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="T37" s="41" t="s">
+      <c r="T37" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="U37" s="13" t="s">
+      <c r="U37" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="V37" s="29" t="s">
+      <c r="V37" s="83" t="s">
         <v>252</v>
+      </c>
+      <c r="W37" s="57">
+        <v>42414</v>
+      </c>
+      <c r="X37" s="27">
+        <v>42414</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4293,7 +4314,7 @@
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
       <c r="V40" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="W40" t="s">
         <v>259</v>
@@ -4323,10 +4344,10 @@
       <c r="U41" s="44"/>
       <c r="V41" s="46"/>
       <c r="W41" s="47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="X41" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4352,13 +4373,13 @@
       <c r="T42" s="14"/>
       <c r="U42" s="45"/>
       <c r="V42" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W42" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X42" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -5418,12 +5439,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5438,6 +5453,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1420,6 +1420,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1494,9 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,9 +1804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,65 +1838,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="80"/>
-      <c r="O1" s="58" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="61" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1910,31 +1910,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="75"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2062,7 +2062,7 @@
       <c r="V4" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W4" s="57">
+      <c r="W4" s="35">
         <v>42412</v>
       </c>
       <c r="X4" s="27">
@@ -2326,7 +2326,7 @@
       <c r="V8" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W8" s="57">
+      <c r="W8" s="35">
         <v>42414</v>
       </c>
       <c r="X8" s="27">
@@ -4196,7 +4196,7 @@
       <c r="U37" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="V37" s="83" t="s">
+      <c r="V37" s="58" t="s">
         <v>252</v>
       </c>
       <c r="W37" s="57">

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -918,16 +918,16 @@
     <t>Identifica gráficas de funciones</t>
   </si>
   <si>
-    <t>proceso 6</t>
-  </si>
-  <si>
     <t>proceso 7</t>
   </si>
   <si>
-    <t>faltan 4</t>
-  </si>
-  <si>
     <t>Listos 31</t>
+  </si>
+  <si>
+    <t>proceso 8</t>
+  </si>
+  <si>
+    <t>faltan 3</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1345,9 +1345,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,40 +1420,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,6 +1469,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,9 +1801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,65 +1835,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="75" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1910,31 +1907,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="76"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1952,49 +1949,49 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <v>1</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="38">
         <v>10</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="38" t="s">
         <v>218</v>
       </c>
       <c r="V3" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="34">
         <v>42394</v>
       </c>
       <c r="X3" s="27">
@@ -2016,53 +2013,53 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>2</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53" t="s">
+      <c r="M4" s="52"/>
+      <c r="N4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="53">
         <v>6</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="T4" s="56" t="s">
+      <c r="T4" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="53" t="s">
         <v>193</v>
       </c>
       <c r="V4" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4" s="34">
         <v>42412</v>
       </c>
       <c r="X4" s="27">
@@ -2084,49 +2081,49 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="51">
         <v>3</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="54" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="53">
         <v>6</v>
       </c>
-      <c r="R5" s="54" t="s">
+      <c r="R5" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="U5" s="54" t="s">
+      <c r="U5" s="53" t="s">
         <v>195</v>
       </c>
       <c r="V5" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="W5" s="57">
+      <c r="W5" s="56">
         <v>42412</v>
       </c>
       <c r="X5" s="27">
@@ -2185,7 +2182,7 @@
       <c r="S6" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="T6" s="41" t="s">
+      <c r="T6" s="40" t="s">
         <v>198</v>
       </c>
       <c r="U6" s="13" t="s">
@@ -2210,53 +2207,53 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <v>5</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53" t="s">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="53">
         <v>6</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="56" t="s">
+      <c r="T7" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="U7" s="54" t="s">
+      <c r="U7" s="53" t="s">
         <v>193</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="57">
+      <c r="W7" s="56">
         <v>42412</v>
       </c>
       <c r="X7" s="27">
@@ -2280,53 +2277,53 @@
         <v>135</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="53">
         <v>6</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53" t="s">
+      <c r="M8" s="52"/>
+      <c r="N8" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="53">
         <v>6</v>
       </c>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="T8" s="56" t="s">
+      <c r="T8" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="U8" s="54" t="s">
+      <c r="U8" s="53" t="s">
         <v>193</v>
       </c>
       <c r="V8" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="34">
         <v>42414</v>
       </c>
       <c r="X8" s="27">
@@ -2348,45 +2345,45 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>7</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="31" t="s">
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="31">
         <v>10</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="31" t="s">
         <v>184</v>
       </c>
       <c r="V9" s="24" t="s">
@@ -2415,45 +2412,45 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>8</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="31" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="31">
         <v>10</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="T10" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="U10" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V10" s="24" t="s">
@@ -2485,49 +2482,49 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>9</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32" t="s">
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="31">
         <v>10</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S11" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="U11" s="31" t="s">
         <v>218</v>
       </c>
       <c r="V11" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
@@ -2549,49 +2546,49 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>10</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32" t="s">
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="31">
         <v>10</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S12" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T12" s="34" t="s">
+      <c r="T12" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V12" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12" s="34">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
@@ -2613,43 +2610,43 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="29">
         <v>11</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32" t="s">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="31">
         <v>10</v>
       </c>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S13" s="34" t="s">
+      <c r="S13" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T13" s="34" t="s">
+      <c r="T13" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V13" s="24" t="s">
@@ -2680,49 +2677,49 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <v>12</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32" t="s">
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="31">
         <v>10</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S14" s="34" t="s">
+      <c r="S14" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T14" s="34" t="s">
+      <c r="T14" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="U14" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V14" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14" s="34">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
@@ -2744,49 +2741,49 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <v>13</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32" t="s">
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="31">
         <v>10</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="S15" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="T15" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="32" t="s">
+      <c r="U15" s="31" t="s">
         <v>218</v>
       </c>
       <c r="V15" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="34">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
@@ -2808,49 +2805,49 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>14</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32" t="s">
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="31">
         <v>10</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="S16" s="34" t="s">
+      <c r="S16" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T16" s="34" t="s">
+      <c r="T16" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="31" t="s">
         <v>220</v>
       </c>
       <c r="V16" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16" s="34">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
@@ -2872,49 +2869,49 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <v>15</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32" t="s">
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="31">
         <v>10</v>
       </c>
-      <c r="R17" s="32" t="s">
+      <c r="R17" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S17" s="34" t="s">
+      <c r="S17" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T17" s="34" t="s">
+      <c r="T17" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="U17" s="32" t="s">
+      <c r="U17" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V17" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="34">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
@@ -2936,43 +2933,43 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>16</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32" t="s">
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="31">
         <v>10</v>
       </c>
-      <c r="R18" s="32" t="s">
+      <c r="R18" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S18" s="34" t="s">
+      <c r="S18" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T18" s="34" t="s">
+      <c r="T18" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="U18" s="32" t="s">
+      <c r="U18" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V18" s="24" t="s">
@@ -3003,43 +3000,43 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>17</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32" t="s">
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="31">
         <v>10</v>
       </c>
-      <c r="R19" s="32" t="s">
+      <c r="R19" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="U19" s="32" t="s">
+      <c r="U19" s="31" t="s">
         <v>220</v>
       </c>
       <c r="V19" s="24" t="s">
@@ -3070,49 +3067,49 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <v>18</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32" t="s">
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="31">
         <v>10</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="U20" s="32" t="s">
+      <c r="U20" s="31" t="s">
         <v>220</v>
       </c>
       <c r="V20" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W20" s="35">
+      <c r="W20" s="34">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
@@ -3134,49 +3131,49 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <v>19</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32" t="s">
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="31">
         <v>10</v>
       </c>
-      <c r="R21" s="32" t="s">
+      <c r="R21" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="S21" s="34" t="s">
+      <c r="S21" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="34" t="s">
+      <c r="T21" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="U21" s="32" t="s">
+      <c r="U21" s="31" t="s">
         <v>220</v>
       </c>
       <c r="V21" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21" s="34">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
@@ -3198,51 +3195,51 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="31">
         <v>20</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="33" t="s">
+      <c r="L22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="31" t="s">
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="31">
         <v>10</v>
       </c>
-      <c r="R22" s="32" t="s">
+      <c r="R22" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="S22" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T22" s="34" t="s">
+      <c r="T22" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="U22" s="32" t="s">
+      <c r="U22" s="31" t="s">
         <v>220</v>
       </c>
       <c r="V22" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22" s="34">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
@@ -3264,49 +3261,49 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="29">
         <v>21</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="32" t="s">
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="31">
         <v>10</v>
       </c>
-      <c r="R23" s="32" t="s">
+      <c r="R23" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S23" s="34" t="s">
+      <c r="S23" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T23" s="34" t="s">
+      <c r="T23" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="U23" s="32" t="s">
+      <c r="U23" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V23" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23" s="34">
         <v>42401</v>
       </c>
       <c r="X23" t="s">
@@ -3330,53 +3327,53 @@
         <v>135</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="53">
         <v>22</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="K24" s="53" t="s">
+      <c r="K24" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="53" t="s">
+      <c r="L24" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53" t="s">
+      <c r="M24" s="52"/>
+      <c r="N24" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="54" t="s">
+      <c r="P24" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="54">
+      <c r="Q24" s="53">
         <v>6</v>
       </c>
-      <c r="R24" s="54" t="s">
+      <c r="R24" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S24" s="55" t="s">
+      <c r="S24" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="T24" s="56" t="s">
+      <c r="T24" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="U24" s="54" t="s">
+      <c r="U24" s="53" t="s">
         <v>193</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W24" s="57">
+      <c r="W24" s="56">
         <v>42414</v>
       </c>
       <c r="X24" s="27">
@@ -3398,43 +3395,43 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="29">
         <v>23</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="32" t="s">
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="31">
         <v>10</v>
       </c>
-      <c r="R25" s="32" t="s">
+      <c r="R25" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S25" s="34" t="s">
+      <c r="S25" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="T25" s="34" t="s">
+      <c r="T25" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="U25" s="32" t="s">
+      <c r="U25" s="31" t="s">
         <v>184</v>
       </c>
       <c r="V25" s="24" t="s">
@@ -3462,43 +3459,43 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="31">
         <v>24</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32" t="s">
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="31">
         <v>10</v>
       </c>
-      <c r="R26" s="32" t="s">
+      <c r="R26" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S26" s="34" t="s">
+      <c r="S26" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="U26" s="32" t="s">
+      <c r="U26" s="31" t="s">
         <v>184</v>
       </c>
       <c r="V26" s="24" t="s">
@@ -3526,49 +3523,49 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="29">
         <v>25</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="32" t="s">
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="31">
         <v>10</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R27" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="S27" s="34" t="s">
+      <c r="S27" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T27" s="34" t="s">
+      <c r="T27" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="U27" s="32" t="s">
+      <c r="U27" s="31" t="s">
         <v>218</v>
       </c>
       <c r="V27" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W27" s="35">
+      <c r="W27" s="34">
         <v>42402</v>
       </c>
       <c r="X27" t="s">
@@ -3590,49 +3587,49 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="31">
         <v>26</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="32" t="s">
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="31">
         <v>10</v>
       </c>
-      <c r="R28" s="32" t="s">
+      <c r="R28" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="S28" s="34" t="s">
+      <c r="S28" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T28" s="34" t="s">
+      <c r="T28" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="U28" s="32" t="s">
+      <c r="U28" s="31" t="s">
         <v>218</v>
       </c>
       <c r="V28" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W28" s="35">
+      <c r="W28" s="34">
         <v>42402</v>
       </c>
       <c r="X28" t="s">
@@ -3654,49 +3651,49 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <v>27</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="33" t="s">
+      <c r="L29" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="32" t="s">
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="31">
         <v>10</v>
       </c>
-      <c r="R29" s="32" t="s">
+      <c r="R29" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S29" s="34" t="s">
+      <c r="S29" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="T29" s="34" t="s">
+      <c r="T29" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="U29" s="32" t="s">
+      <c r="U29" s="31" t="s">
         <v>184</v>
       </c>
       <c r="V29" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W29" s="35">
+      <c r="W29" s="34">
         <v>42402</v>
       </c>
       <c r="X29" t="s">
@@ -3755,7 +3752,7 @@
       <c r="S30" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="T30" s="41" t="s">
+      <c r="T30" s="40" t="s">
         <v>202</v>
       </c>
       <c r="U30" s="13" t="s">
@@ -3780,49 +3777,49 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="29">
         <v>29</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="33" t="s">
+      <c r="L31" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32" t="s">
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="32">
+      <c r="Q31" s="31">
         <v>10</v>
       </c>
-      <c r="R31" s="32" t="s">
+      <c r="R31" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="S31" s="34" t="s">
+      <c r="S31" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="T31" s="34" t="s">
+      <c r="T31" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="U31" s="32" t="s">
+      <c r="U31" s="31" t="s">
         <v>218</v>
       </c>
       <c r="V31" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W31" s="35">
+      <c r="W31" s="34">
         <v>42403</v>
       </c>
       <c r="X31" t="s">
@@ -3844,43 +3841,43 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="31">
         <v>30</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="32" t="s">
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="32">
+      <c r="Q32" s="31">
         <v>10</v>
       </c>
-      <c r="R32" s="32" t="s">
+      <c r="R32" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S32" s="34" t="s">
+      <c r="S32" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="T32" s="34" t="s">
+      <c r="T32" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="U32" s="32" t="s">
+      <c r="U32" s="31" t="s">
         <v>184</v>
       </c>
       <c r="V32" s="24" t="s">
@@ -3911,7 +3908,7 @@
       <c r="G33" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <v>31</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -3945,7 +3942,7 @@
       <c r="S33" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="T33" s="41" t="s">
+      <c r="T33" s="40" t="s">
         <v>226</v>
       </c>
       <c r="U33" s="13" t="s">
@@ -3975,49 +3972,49 @@
         <v>135</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="31">
         <v>32</v>
       </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="33" t="s">
+      <c r="L34" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32" t="s">
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="31">
         <v>10</v>
       </c>
-      <c r="R34" s="32" t="s">
+      <c r="R34" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S34" s="34" t="s">
+      <c r="S34" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="T34" s="34" t="s">
+      <c r="T34" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="U34" s="32" t="s">
+      <c r="U34" s="31" t="s">
         <v>184</v>
       </c>
       <c r="V34" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="W34" s="35">
+      <c r="W34" s="34">
         <v>42402</v>
       </c>
       <c r="X34" t="s">
@@ -4039,43 +4036,43 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="29">
         <v>33</v>
       </c>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="32" t="s">
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="32">
+      <c r="Q35" s="31">
         <v>10</v>
       </c>
-      <c r="R35" s="32" t="s">
+      <c r="R35" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="S35" s="34" t="s">
+      <c r="S35" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T35" s="34" t="s">
+      <c r="T35" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="U35" s="32" t="s">
+      <c r="U35" s="31" t="s">
         <v>215</v>
       </c>
       <c r="V35" s="24" t="s">
@@ -4103,37 +4100,37 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="31">
         <v>34</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="32" t="s">
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
       <c r="X36" t="s">
         <v>248</v>
       </c>
@@ -4153,53 +4150,53 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="51" t="s">
+      <c r="G37" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="52">
+      <c r="H37" s="51">
         <v>35</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="51" t="s">
+      <c r="J37" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="53" t="s">
+      <c r="K37" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="53" t="s">
+      <c r="L37" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53" t="s">
+      <c r="M37" s="52"/>
+      <c r="N37" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="51" t="s">
+      <c r="O37" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="P37" s="54" t="s">
+      <c r="P37" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="54">
+      <c r="Q37" s="53">
         <v>6</v>
       </c>
-      <c r="R37" s="54" t="s">
+      <c r="R37" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S37" s="55" t="s">
+      <c r="S37" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="T37" s="56" t="s">
+      <c r="T37" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="U37" s="54" t="s">
+      <c r="U37" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="V37" s="58" t="s">
+      <c r="V37" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="W37" s="57">
+      <c r="W37" s="56">
         <v>42414</v>
       </c>
       <c r="X37" s="27">
@@ -4221,51 +4218,57 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="53">
         <v>36</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12" t="s">
+      <c r="M38" s="52"/>
+      <c r="N38" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="P38" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="53">
         <v>6</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R38" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="S38" s="14" t="s">
+      <c r="S38" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="T38" s="41" t="s">
+      <c r="T38" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="U38" s="13" t="s">
+      <c r="U38" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="V38" s="29" t="s">
+      <c r="V38" s="57" t="s">
         <v>252</v>
+      </c>
+      <c r="W38" s="56">
+        <v>42415</v>
+      </c>
+      <c r="X38" s="27">
+        <v>42414</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4314,7 +4317,7 @@
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
       <c r="V40" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W40" t="s">
         <v>259</v>
@@ -4341,13 +4344,13 @@
       <c r="R41" s="13"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="47" t="s">
+      <c r="U41" s="43"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="X41" s="48" t="s">
-        <v>263</v>
+      <c r="X41" s="47" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4371,15 +4374,15 @@
       <c r="R42" s="11"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="W42" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="X42" s="50" t="s">
-        <v>264</v>
+      <c r="U42" s="44"/>
+      <c r="V42" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="W42" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="X42" s="49" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -5439,6 +5442,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5453,12 +5462,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -660,9 +660,6 @@
     <t>Evalua tus conocimientos sobre el tema Las funciones</t>
   </si>
   <si>
-    <t>Banco de contenidos: Las funciones</t>
-  </si>
-  <si>
     <t>Fin de unidad</t>
   </si>
   <si>
@@ -928,6 +925,9 @@
   </si>
   <si>
     <t>faltan 3</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Las funciones</t>
   </si>
 </sst>
 </file>
@@ -1420,16 +1420,40 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,30 +1493,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1801,9 +1801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,103 +1835,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="80"/>
+      <c r="O1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="S1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="X1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="X1" s="26" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="67"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="76"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -1977,19 +1977,19 @@
         <v>10</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T3" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U3" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W3" s="34">
         <v>42394</v>
@@ -2023,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>20</v>
@@ -2045,19 +2045,19 @@
         <v>6</v>
       </c>
       <c r="R4" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="S4" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S4" s="54" t="s">
+      <c r="T4" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="U4" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="U4" s="53" t="s">
-        <v>193</v>
-      </c>
       <c r="V4" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W4" s="34">
         <v>42412</v>
@@ -2091,7 +2091,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K5" s="52" t="s">
         <v>20</v>
@@ -2109,19 +2109,19 @@
         <v>6</v>
       </c>
       <c r="R5" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S5" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="U5" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="U5" s="53" t="s">
-        <v>195</v>
-      </c>
       <c r="V5" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W5" s="56">
         <v>42412</v>
@@ -2177,19 +2177,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="T6" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="U6" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>199</v>
-      </c>
       <c r="V6" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H7" s="51">
         <v>5</v>
@@ -2239,19 +2239,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="S7" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S7" s="54" t="s">
+      <c r="T7" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="U7" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="U7" s="53" t="s">
-        <v>193</v>
-      </c>
       <c r="V7" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W7" s="56">
         <v>42412</v>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H8" s="53">
         <v>6</v>
@@ -2287,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K8" s="52" t="s">
         <v>20</v>
@@ -2309,19 +2309,19 @@
         <v>6</v>
       </c>
       <c r="R8" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="S8" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S8" s="54" t="s">
-        <v>191</v>
-      </c>
       <c r="T8" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U8" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W8" s="34">
         <v>42414</v>
@@ -2346,7 +2346,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H9" s="29">
         <v>7</v>
@@ -2355,7 +2355,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>19</v>
@@ -2366,7 +2366,7 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>20</v>
@@ -2375,25 +2375,25 @@
         <v>10</v>
       </c>
       <c r="R9" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="S9" s="33" t="s">
+      <c r="T9" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="U9" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>184</v>
-      </c>
       <c r="V9" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X9" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB9" s="25"/>
     </row>
@@ -2422,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>19</v>
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="R10" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T10" s="33" t="s">
         <v>137</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X10" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB10" s="25"/>
     </row>
@@ -2492,7 +2492,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>19</v>
@@ -2510,25 +2510,25 @@
         <v>10</v>
       </c>
       <c r="R11" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="T11" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="S11" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="T11" s="33" t="s">
+      <c r="U11" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="U11" s="31" t="s">
-        <v>218</v>
-      </c>
       <c r="V11" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W11" s="34">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2574,25 +2574,25 @@
         <v>10</v>
       </c>
       <c r="R12" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T12" s="33" t="s">
         <v>139</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W12" s="34">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>19</v>
@@ -2638,28 +2638,28 @@
         <v>10</v>
       </c>
       <c r="R13" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T13" s="33" t="s">
         <v>142</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>19</v>
@@ -2705,25 +2705,25 @@
         <v>10</v>
       </c>
       <c r="R14" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T14" s="33" t="s">
         <v>143</v>
       </c>
       <c r="U14" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V14" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W14" s="34">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>19</v>
@@ -2769,25 +2769,25 @@
         <v>10</v>
       </c>
       <c r="R15" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T15" s="33" t="s">
         <v>144</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V15" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W15" s="34">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
@@ -2833,25 +2833,25 @@
         <v>10</v>
       </c>
       <c r="R16" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T16" s="33" t="s">
         <v>145</v>
       </c>
       <c r="U16" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V16" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W16" s="34">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H17" s="29">
         <v>15</v>
@@ -2897,25 +2897,25 @@
         <v>10</v>
       </c>
       <c r="R17" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U17" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V17" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W17" s="34">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -2961,28 +2961,28 @@
         <v>10</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S18" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T18" s="33" t="s">
         <v>148</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V18" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>19</v>
@@ -3028,28 +3028,28 @@
         <v>10</v>
       </c>
       <c r="R19" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S19" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T19" s="33" t="s">
         <v>149</v>
       </c>
       <c r="U19" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V19" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H20" s="31">
         <v>18</v>
@@ -3077,7 +3077,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>19</v>
@@ -3095,25 +3095,25 @@
         <v>10</v>
       </c>
       <c r="R20" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="U20" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="S20" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="U20" s="31" t="s">
-        <v>220</v>
-      </c>
       <c r="V20" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W20" s="34">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H21" s="29">
         <v>19</v>
@@ -3141,7 +3141,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K21" s="32" t="s">
         <v>19</v>
@@ -3159,25 +3159,25 @@
         <v>10</v>
       </c>
       <c r="R21" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S21" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T21" s="33" t="s">
         <v>151</v>
       </c>
       <c r="U21" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V21" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W21" s="34">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3216,7 +3216,7 @@
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>19</v>
@@ -3225,25 +3225,25 @@
         <v>10</v>
       </c>
       <c r="R22" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S22" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T22" s="33" t="s">
         <v>152</v>
       </c>
       <c r="U22" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W22" s="34">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3262,7 +3262,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H23" s="29">
         <v>21</v>
@@ -3271,7 +3271,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>19</v>
@@ -3289,25 +3289,25 @@
         <v>10</v>
       </c>
       <c r="R23" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S23" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T23" s="33" t="s">
         <v>154</v>
       </c>
       <c r="U23" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W23" s="34">
         <v>42401</v>
       </c>
       <c r="X23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K24" s="52" t="s">
         <v>20</v>
@@ -3359,19 +3359,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="S24" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S24" s="54" t="s">
-        <v>191</v>
-      </c>
       <c r="T24" s="55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U24" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W24" s="56">
         <v>42414</v>
@@ -3423,25 +3423,25 @@
         <v>10</v>
       </c>
       <c r="R25" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S25" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="S25" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="T25" s="33" t="s">
         <v>157</v>
       </c>
       <c r="U25" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W25" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X25" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>19</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K26" s="32" t="s">
         <v>19</v>
@@ -3487,25 +3487,25 @@
         <v>10</v>
       </c>
       <c r="R26" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S26" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="S26" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="T26" s="33" t="s">
         <v>159</v>
       </c>
       <c r="U26" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W26" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X26" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="29">
         <v>25</v>
@@ -3533,7 +3533,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>19</v>
@@ -3551,25 +3551,25 @@
         <v>10</v>
       </c>
       <c r="R27" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S27" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T27" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U27" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W27" s="34">
         <v>42402</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3588,7 +3588,7 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H28" s="31">
         <v>26</v>
@@ -3597,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>19</v>
@@ -3615,25 +3615,25 @@
         <v>10</v>
       </c>
       <c r="R28" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T28" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U28" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W28" s="34">
         <v>42402</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3679,25 +3679,25 @@
         <v>10</v>
       </c>
       <c r="R29" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S29" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="S29" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="T29" s="33" t="s">
         <v>160</v>
       </c>
       <c r="U29" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V29" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W29" s="34">
         <v>42402</v>
       </c>
       <c r="X29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3747,19 +3747,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="S30" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="S30" s="14" t="s">
-        <v>197</v>
-      </c>
       <c r="T30" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V30" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H31" s="29">
         <v>29</v>
@@ -3787,7 +3787,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K31" s="32" t="s">
         <v>19</v>
@@ -3805,25 +3805,25 @@
         <v>10</v>
       </c>
       <c r="R31" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S31" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T31" s="33" t="s">
         <v>162</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V31" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W31" s="34">
         <v>42403</v>
       </c>
       <c r="X31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3869,25 +3869,25 @@
         <v>10</v>
       </c>
       <c r="R32" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="S32" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="T32" s="33" t="s">
         <v>163</v>
       </c>
       <c r="U32" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V32" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W32" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X32" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P33" s="13" t="s">
         <v>20</v>
@@ -3937,22 +3937,22 @@
         <v>6</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S33" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T33" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="U33" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="T33" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="V33" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4000,25 +4000,25 @@
         <v>10</v>
       </c>
       <c r="R34" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S34" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="S34" s="33" t="s">
+      <c r="T34" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="U34" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="T34" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="U34" s="31" t="s">
-        <v>184</v>
-      </c>
       <c r="V34" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W34" s="34">
         <v>42402</v>
       </c>
       <c r="X34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4037,7 +4037,7 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H35" s="29">
         <v>33</v>
@@ -4046,7 +4046,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K35" s="32" t="s">
         <v>19</v>
@@ -4064,25 +4064,25 @@
         <v>10</v>
       </c>
       <c r="R35" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S35" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T35" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U35" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V35" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W35" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -4132,7 +4132,7 @@
       <c r="V36" s="42"/>
       <c r="W36" s="42"/>
       <c r="X36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
         <v>123</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -4173,7 +4173,7 @@
         <v>33</v>
       </c>
       <c r="O37" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P37" s="53" t="s">
         <v>19</v>
@@ -4182,19 +4182,19 @@
         <v>6</v>
       </c>
       <c r="R37" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="S37" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S37" s="54" t="s">
+      <c r="T37" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="T37" s="55" t="s">
+      <c r="U37" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="U37" s="53" t="s">
-        <v>193</v>
-      </c>
       <c r="V37" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W37" s="56">
         <v>42414</v>
@@ -4214,12 +4214,12 @@
         <v>123</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="50" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="H38" s="53">
         <v>36</v>
@@ -4228,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K38" s="52" t="s">
         <v>20</v>
@@ -4241,7 +4241,7 @@
         <v>52</v>
       </c>
       <c r="O38" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P38" s="53" t="s">
         <v>20</v>
@@ -4250,19 +4250,19 @@
         <v>6</v>
       </c>
       <c r="R38" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="S38" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="S38" s="54" t="s">
-        <v>191</v>
-      </c>
       <c r="T38" s="55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U38" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V38" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W38" s="56">
         <v>42415</v>
@@ -4317,10 +4317,10 @@
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
       <c r="V40" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4347,10 +4347,10 @@
       <c r="U41" s="43"/>
       <c r="V41" s="45"/>
       <c r="W41" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X41" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4376,13 +4376,13 @@
       <c r="T42" s="14"/>
       <c r="U42" s="44"/>
       <c r="V42" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W42" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X42" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="12"/>
       <c r="J43" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
@@ -4421,7 +4421,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="12"/>
       <c r="J44" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -5442,12 +5442,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5462,6 +5456,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1420,40 +1420,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,6 +1469,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1802,7 +1802,7 @@
   <dimension ref="A1:AB286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
@@ -1835,65 +1835,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="80"/>
-      <c r="O1" s="58" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="75" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1907,31 +1907,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="75"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="76"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -5442,6 +5442,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5456,12 +5462,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="267">
   <si>
     <t>Asignatura</t>
   </si>
@@ -888,9 +888,6 @@
     <t>Andrea Sabogal</t>
   </si>
   <si>
-    <t>Diana Gonzalez</t>
-  </si>
-  <si>
     <t>Cristhian Fuentes</t>
   </si>
   <si>
@@ -928,6 +925,12 @@
   </si>
   <si>
     <t>Banco de actividades: Las funciones</t>
+  </si>
+  <si>
+    <t>Clara Melo</t>
+  </si>
+  <si>
+    <t>toca con imágenes</t>
   </si>
 </sst>
 </file>
@@ -1420,16 +1423,40 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,30 +1496,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1801,9 +1804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,65 +1838,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="80"/>
+      <c r="O1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="S1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="60" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1907,31 +1910,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="67"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="76"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1983,7 +1986,7 @@
         <v>185</v>
       </c>
       <c r="T3" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U3" s="38" t="s">
         <v>217</v>
@@ -2121,7 +2124,7 @@
         <v>194</v>
       </c>
       <c r="V5" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W5" s="56">
         <v>42412</v>
@@ -2145,51 +2148,55 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="53">
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="52"/>
+      <c r="O6" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="53">
         <v>6</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="40" t="s">
+      <c r="T6" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="V6" s="28" t="s">
-        <v>252</v>
+      <c r="V6" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="27">
+        <v>42416</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2208,7 +2215,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H7" s="51">
         <v>5</v>
@@ -2463,7 +2470,7 @@
         <v>247</v>
       </c>
       <c r="Y10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB10" s="25"/>
     </row>
@@ -2659,7 +2666,7 @@
         <v>247</v>
       </c>
       <c r="Y13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2806,7 +2813,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
@@ -2982,7 +2989,7 @@
         <v>249</v>
       </c>
       <c r="Y18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3049,7 +3056,7 @@
         <v>247</v>
       </c>
       <c r="Y19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3373,7 +3380,7 @@
       <c r="V24" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W24" s="56">
+      <c r="W24" s="34">
         <v>42414</v>
       </c>
       <c r="X24" s="27">
@@ -3715,51 +3722,57 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="53">
         <v>28</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="11" t="s">
+      <c r="N30" s="52"/>
+      <c r="O30" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="53">
         <v>6</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="T30" s="40" t="s">
+      <c r="T30" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U30" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="V30" s="28" t="s">
-        <v>252</v>
+      <c r="V30" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="X30" s="27">
+        <v>42416</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3949,10 +3962,10 @@
         <v>194</v>
       </c>
       <c r="V33" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4219,7 +4232,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H38" s="53">
         <v>36</v>
@@ -4264,7 +4277,7 @@
       <c r="V38" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="W38" s="56">
+      <c r="W38" s="34">
         <v>42415</v>
       </c>
       <c r="X38" s="27">
@@ -4317,10 +4330,10 @@
       <c r="T40" s="14"/>
       <c r="U40" s="13"/>
       <c r="V40" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4347,10 +4360,10 @@
       <c r="U41" s="43"/>
       <c r="V41" s="45"/>
       <c r="W41" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X41" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4376,13 +4389,13 @@
       <c r="T42" s="14"/>
       <c r="U42" s="44"/>
       <c r="V42" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W42" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X42" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -5442,12 +5455,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5462,6 +5469,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="269">
   <si>
     <t>Asignatura</t>
   </si>
@@ -931,13 +932,19 @@
   </si>
   <si>
     <t>toca con imágenes</t>
+  </si>
+  <si>
+    <t>Fecha envío de solicitud gráfica</t>
+  </si>
+  <si>
+    <t>Número recurso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,6 +1012,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1120,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1280,11 +1293,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1377,9 +1416,6 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1423,40 +1459,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,6 +1508,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,65 +1906,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="80"/>
-      <c r="O1" s="58" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="74" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1910,31 +1978,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="75"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="75"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2016,47 +2084,47 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>2</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="P4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q4" s="52">
         <v>6</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="54" t="s">
+      <c r="S4" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="U4" s="52" t="s">
         <v>192</v>
       </c>
       <c r="V4" s="24" t="s">
@@ -2084,49 +2152,49 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <v>3</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="53" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="52">
         <v>6</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="R5" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="53" t="s">
+      <c r="U5" s="52" t="s">
         <v>194</v>
       </c>
       <c r="V5" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W5" s="56">
+      <c r="W5" s="55">
         <v>42412</v>
       </c>
       <c r="X5" s="27">
@@ -2148,47 +2216,47 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <v>4</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="50" t="s">
+      <c r="N6" s="51"/>
+      <c r="O6" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="52">
         <v>6</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="54" t="s">
+      <c r="S6" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="53" t="s">
+      <c r="U6" s="52" t="s">
         <v>198</v>
       </c>
       <c r="V6" s="24" t="s">
@@ -2214,53 +2282,53 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="50">
         <v>5</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52" t="s">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="53">
+      <c r="Q7" s="52">
         <v>6</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S7" s="54" t="s">
+      <c r="S7" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="T7" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="U7" s="53" t="s">
+      <c r="U7" s="52" t="s">
         <v>192</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W7" s="56">
+      <c r="W7" s="55">
         <v>42412</v>
       </c>
       <c r="X7" s="27">
@@ -2284,47 +2352,47 @@
         <v>135</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="52">
         <v>6</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52" t="s">
+      <c r="M8" s="51"/>
+      <c r="N8" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="O8" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="52">
         <v>6</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="R8" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="T8" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="53" t="s">
+      <c r="U8" s="52" t="s">
         <v>192</v>
       </c>
       <c r="V8" s="24" t="s">
@@ -3334,47 +3402,47 @@
         <v>135</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="52">
         <v>22</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="52" t="s">
+      <c r="L24" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52" t="s">
+      <c r="M24" s="51"/>
+      <c r="N24" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="53" t="s">
+      <c r="P24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="53">
+      <c r="Q24" s="52">
         <v>6</v>
       </c>
-      <c r="R24" s="53" t="s">
+      <c r="R24" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="54" t="s">
+      <c r="S24" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="55" t="s">
+      <c r="T24" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="U24" s="53" t="s">
+      <c r="U24" s="52" t="s">
         <v>192</v>
       </c>
       <c r="V24" s="24" t="s">
@@ -3722,47 +3790,47 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="52">
         <v>28</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="52" t="s">
+      <c r="K30" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="M30" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="50" t="s">
+      <c r="N30" s="51"/>
+      <c r="O30" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="53" t="s">
+      <c r="P30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="53">
+      <c r="Q30" s="52">
         <v>6</v>
       </c>
-      <c r="R30" s="53" t="s">
+      <c r="R30" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="S30" s="54" t="s">
+      <c r="S30" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="T30" s="55" t="s">
+      <c r="T30" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="U30" s="53" t="s">
+      <c r="U30" s="52" t="s">
         <v>198</v>
       </c>
       <c r="V30" s="24" t="s">
@@ -3918,51 +3986,55 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="50">
         <v>31</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="11" t="s">
+      <c r="N33" s="51"/>
+      <c r="O33" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="52">
         <v>6</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S33" s="14" t="s">
+      <c r="S33" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="T33" s="40" t="s">
+      <c r="T33" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="U33" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="V33" s="28" t="s">
+      <c r="V33" s="24" t="s">
         <v>252</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="27">
+        <v>42419</v>
       </c>
       <c r="Y33" t="s">
         <v>258</v>
@@ -4142,8 +4214,8 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="31"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
       <c r="X36" t="s">
         <v>247</v>
       </c>
@@ -4163,53 +4235,53 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="50">
         <v>35</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="52" t="s">
+      <c r="K37" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="52" t="s">
+      <c r="L37" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52" t="s">
+      <c r="M37" s="51"/>
+      <c r="N37" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="50" t="s">
+      <c r="O37" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="P37" s="53" t="s">
+      <c r="P37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="53">
+      <c r="Q37" s="52">
         <v>6</v>
       </c>
-      <c r="R37" s="53" t="s">
+      <c r="R37" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S37" s="54" t="s">
+      <c r="S37" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="T37" s="55" t="s">
+      <c r="T37" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="U37" s="53" t="s">
+      <c r="U37" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="V37" s="57" t="s">
+      <c r="V37" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="W37" s="56">
+      <c r="W37" s="55">
         <v>42414</v>
       </c>
       <c r="X37" s="27">
@@ -4231,50 +4303,50 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="52">
         <v>36</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="K38" s="52" t="s">
+      <c r="K38" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="52" t="s">
+      <c r="L38" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52" t="s">
+      <c r="M38" s="51"/>
+      <c r="N38" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="50" t="s">
+      <c r="O38" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="53" t="s">
+      <c r="P38" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="53">
+      <c r="Q38" s="52">
         <v>6</v>
       </c>
-      <c r="R38" s="53" t="s">
+      <c r="R38" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="S38" s="54" t="s">
+      <c r="S38" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="T38" s="55" t="s">
+      <c r="T38" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="U38" s="53" t="s">
+      <c r="U38" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="V38" s="57" t="s">
+      <c r="V38" s="56" t="s">
         <v>251</v>
       </c>
       <c r="W38" s="34">
@@ -4357,12 +4429,12 @@
       <c r="R41" s="13"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="46" t="s">
+      <c r="U41" s="42"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="X41" s="47" t="s">
+      <c r="X41" s="46" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4387,14 +4459,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="48" t="s">
+      <c r="U42" s="43"/>
+      <c r="V42" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="W42" s="46" t="s">
+      <c r="W42" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="X42" s="49" t="s">
+      <c r="X42" s="48" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5455,6 +5527,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5469,12 +5547,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5520,6 +5592,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="93"/>
+      <c r="H3" s="87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="91"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="87"/>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="84"/>
+      <c r="C5" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="82">
+        <v>10</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="84"/>
+      <c r="C6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="40">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="83">
+        <v>42410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="84"/>
+      <c r="C7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="13">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="83">
+        <v>42412</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="84"/>
+      <c r="C8" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="40">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="83">
+        <v>42412</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="84"/>
+      <c r="C9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="13">
+        <v>60</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="83">
+        <v>42414</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="84"/>
+      <c r="C10" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="13">
+        <v>220</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="83">
+        <v>42414</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
+      <c r="C11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="40">
+        <v>350</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="83">
+        <v>42414</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="84"/>
+      <c r="C12" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="13">
+        <v>360</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="83">
+        <v>42414</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="84"/>
+      <c r="C13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="13">
+        <v>40</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="83">
+        <v>42416</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="84"/>
+      <c r="C14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="13">
+        <v>280</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="83">
+        <v>42416</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="84"/>
+      <c r="C15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="40">
+        <v>310</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="83">
+        <v>42419</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATOS!$E$1:$E$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5:F14 F15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATOS!$B$1:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E14 E15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DATOS!$E$14:$E$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>G5:G14 G15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1459,16 +1459,48 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,45 +1542,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,13 +1563,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1872,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,65 +1906,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="S1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="63" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1978,31 +1978,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="75"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="64"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -5527,12 +5527,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5547,6 +5541,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5606,54 +5606,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="87" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="86" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="91"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="88"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="87"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="57">
         <v>10</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58">
         <v>42394</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
@@ -5665,12 +5665,12 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="83">
+      <c r="H6" s="58">
         <v>42410</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
@@ -5684,12 +5684,12 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="58">
         <v>42412</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="11" t="s">
         <v>259</v>
       </c>
@@ -5703,12 +5703,12 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="58">
         <v>42412</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
@@ -5722,12 +5722,12 @@
       <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
@@ -5741,12 +5741,12 @@
       <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="84"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
@@ -5760,12 +5760,12 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="84"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="11" t="s">
         <v>264</v>
       </c>
@@ -5779,12 +5779,12 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="11" t="s">
         <v>129</v>
       </c>
@@ -5798,12 +5798,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="83">
+      <c r="H13" s="58">
         <v>42416</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
@@ -5817,12 +5817,12 @@
         <v>54</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="83">
+      <c r="H14" s="58">
         <v>42416</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="83">
+      <c r="H15" s="58">
         <v>42419</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="270">
   <si>
     <t>Asignatura</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>Número recurso</t>
+  </si>
+  <si>
+    <t>Faltan algunas imágenes</t>
   </si>
 </sst>
 </file>
@@ -1467,40 +1470,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,6 +1519,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1872,9 +1875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,65 +1909,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="67" t="s">
+      <c r="S1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="78" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1978,31 +1981,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="78"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="79"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2135,6 +2138,9 @@
       </c>
       <c r="X4" s="27">
         <v>42412</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -5527,6 +5533,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5541,12 +5553,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="269">
   <si>
     <t>Asignatura</t>
   </si>
@@ -938,9 +938,6 @@
   </si>
   <si>
     <t>Número recurso</t>
-  </si>
-  <si>
-    <t>Faltan algunas imágenes</t>
   </si>
 </sst>
 </file>
@@ -1462,14 +1459,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,19 +1534,21 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,7 +1557,13 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1875,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,65 +1906,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="82" t="s">
+      <c r="S1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="T1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="74" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1981,31 +1978,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="70"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="79"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="75"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2138,9 +2135,6 @@
       </c>
       <c r="X4" s="27">
         <v>42412</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -5612,54 +5606,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86" t="s">
+      <c r="G3" s="93"/>
+      <c r="H3" s="87" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="90"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="82">
         <v>10</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58">
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83">
         <v>42394</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
@@ -5671,12 +5665,12 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="58">
+      <c r="H6" s="83">
         <v>42410</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
@@ -5690,12 +5684,12 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="83">
         <v>42412</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="11" t="s">
         <v>259</v>
       </c>
@@ -5709,12 +5703,12 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="83">
         <v>42412</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
@@ -5728,12 +5722,12 @@
       <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="83">
         <v>42414</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
@@ -5747,12 +5741,12 @@
       <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="83">
         <v>42414</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
@@ -5766,12 +5760,12 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="83">
         <v>42414</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="11" t="s">
         <v>264</v>
       </c>
@@ -5785,12 +5779,12 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="83">
         <v>42414</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="11" t="s">
         <v>129</v>
       </c>
@@ -5804,12 +5798,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="58">
+      <c r="H13" s="83">
         <v>42416</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
@@ -5823,12 +5817,12 @@
         <v>54</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="58">
+      <c r="H14" s="83">
         <v>42416</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
@@ -5842,7 +5836,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="58">
+      <c r="H15" s="83">
         <v>42419</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1323,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1459,16 +1459,48 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,45 +1542,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,14 +1563,11 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1872,9 +1875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,65 +1909,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="83"/>
+      <c r="O1" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="S1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="63" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1978,31 +1981,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="75"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="64"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2152,52 +2155,52 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="29">
         <v>3</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="52" t="s">
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="31">
         <v>6</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="R5" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="U5" s="31" t="s">
         <v>194</v>
       </c>
       <c r="V5" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W5" s="55">
+      <c r="W5" s="34">
         <v>42412</v>
       </c>
-      <c r="X5" s="27">
+      <c r="X5" s="34">
         <v>42410</v>
       </c>
     </row>
@@ -5527,12 +5530,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5547,6 +5544,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5606,54 +5609,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="87" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="86" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="91"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="88"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="87"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="57">
         <v>10</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58">
         <v>42394</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
@@ -5665,12 +5668,12 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="83">
+      <c r="H6" s="58">
         <v>42410</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
@@ -5684,12 +5687,12 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="58">
         <v>42412</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="11" t="s">
         <v>259</v>
       </c>
@@ -5703,12 +5706,12 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="58">
         <v>42412</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
@@ -5722,12 +5725,12 @@
       <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
@@ -5741,12 +5744,12 @@
       <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="84"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
@@ -5760,12 +5763,12 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="84"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="11" t="s">
         <v>264</v>
       </c>
@@ -5779,12 +5782,12 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="58">
         <v>42414</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="11" t="s">
         <v>129</v>
       </c>
@@ -5798,12 +5801,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="83">
+      <c r="H13" s="58">
         <v>42416</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
@@ -5817,12 +5820,12 @@
         <v>54</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="83">
+      <c r="H14" s="58">
         <v>42416</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="83">
+      <c r="H15" s="58">
         <v>42419</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1467,40 +1467,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,6 +1521,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1565,9 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1875,9 +1875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,65 +1909,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="67" t="s">
+      <c r="S1" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="79" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1981,31 +1981,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="78"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="80"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
       <c r="S5" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="94" t="s">
+      <c r="T5" s="61" t="s">
         <v>202</v>
       </c>
       <c r="U5" s="31" t="s">
@@ -5530,6 +5530,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5544,12 +5550,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5609,34 +5609,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86" t="s">
+      <c r="G3" s="89"/>
+      <c r="H3" s="87" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="90"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="59"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1403,19 +1403,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1470,16 +1457,40 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,30 +1532,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1568,6 +1555,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1876,8 +1876,8 @@
   <dimension ref="A1:AB286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X22" sqref="X22"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,65 +1909,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="64" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="Q1" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="79" t="s">
+      <c r="U1" s="59" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1981,31 +1981,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="80"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="60"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2023,43 +2023,43 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="90">
         <v>1</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="93">
         <v>10</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="93" t="s">
         <v>217</v>
       </c>
       <c r="V3" s="24" t="s">
@@ -2068,7 +2068,7 @@
       <c r="W3" s="34">
         <v>42394</v>
       </c>
-      <c r="X3" s="27">
+      <c r="X3" s="34">
         <v>42394</v>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="47">
         <v>2</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51" t="s">
+      <c r="M4" s="46"/>
+      <c r="N4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="47">
         <v>6</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="U4" s="52" t="s">
+      <c r="U4" s="47" t="s">
         <v>192</v>
       </c>
       <c r="V4" s="24" t="s">
@@ -2188,7 +2188,7 @@
       <c r="S5" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="61" t="s">
+      <c r="T5" s="56" t="s">
         <v>202</v>
       </c>
       <c r="U5" s="31" t="s">
@@ -2219,47 +2219,47 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="47">
         <v>4</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="49" t="s">
+      <c r="N6" s="46"/>
+      <c r="O6" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="47">
         <v>6</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="R6" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="54" t="s">
+      <c r="T6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="52" t="s">
+      <c r="U6" s="47" t="s">
         <v>198</v>
       </c>
       <c r="V6" s="24" t="s">
@@ -2285,53 +2285,53 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="45">
         <v>5</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51" t="s">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="47">
         <v>6</v>
       </c>
-      <c r="R7" s="52" t="s">
+      <c r="R7" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="S7" s="53" t="s">
+      <c r="S7" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="54" t="s">
+      <c r="T7" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="U7" s="52" t="s">
+      <c r="U7" s="47" t="s">
         <v>192</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W7" s="55">
+      <c r="W7" s="50">
         <v>42412</v>
       </c>
       <c r="X7" s="27">
@@ -2355,47 +2355,47 @@
         <v>135</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="47">
         <v>6</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51" t="s">
+      <c r="M8" s="46"/>
+      <c r="N8" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="47">
         <v>6</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="54" t="s">
+      <c r="T8" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="52" t="s">
+      <c r="U8" s="47" t="s">
         <v>192</v>
       </c>
       <c r="V8" s="24" t="s">
@@ -3405,47 +3405,47 @@
         <v>135</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="47">
         <v>22</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51" t="s">
+      <c r="M24" s="46"/>
+      <c r="N24" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="49" t="s">
+      <c r="O24" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="P24" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="52">
+      <c r="Q24" s="47">
         <v>6</v>
       </c>
-      <c r="R24" s="52" t="s">
+      <c r="R24" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="53" t="s">
+      <c r="S24" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="54" t="s">
+      <c r="T24" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="U24" s="52" t="s">
+      <c r="U24" s="47" t="s">
         <v>192</v>
       </c>
       <c r="V24" s="24" t="s">
@@ -3793,47 +3793,47 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="47">
         <v>28</v>
       </c>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="49" t="s">
+      <c r="N30" s="46"/>
+      <c r="O30" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="52" t="s">
+      <c r="P30" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="47">
         <v>6</v>
       </c>
-      <c r="R30" s="52" t="s">
+      <c r="R30" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="S30" s="53" t="s">
+      <c r="S30" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="T30" s="54" t="s">
+      <c r="T30" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="U30" s="52" t="s">
+      <c r="U30" s="47" t="s">
         <v>198</v>
       </c>
       <c r="V30" s="24" t="s">
@@ -3989,54 +3989,56 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="29">
         <v>31</v>
       </c>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="J33" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="51" t="s">
+      <c r="L33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="49" t="s">
+      <c r="N33" s="32"/>
+      <c r="O33" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="P33" s="52" t="s">
+      <c r="P33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="52">
+      <c r="Q33" s="31">
         <v>6</v>
       </c>
-      <c r="R33" s="52" t="s">
+      <c r="R33" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S33" s="53" t="s">
+      <c r="S33" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T33" s="54" t="s">
+      <c r="T33" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="U33" s="52" t="s">
+      <c r="U33" s="31" t="s">
         <v>194</v>
       </c>
       <c r="V33" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="27">
+      <c r="W33" s="50">
+        <v>42431</v>
+      </c>
+      <c r="X33" s="34">
         <v>42419</v>
       </c>
       <c r="Y33" t="s">
@@ -4217,8 +4219,8 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="31"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
       <c r="X36" t="s">
         <v>247</v>
       </c>
@@ -4238,56 +4240,56 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="29">
         <v>35</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="49" t="s">
+      <c r="J37" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="51" t="s">
+      <c r="K37" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="51" t="s">
+      <c r="L37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51" t="s">
+      <c r="M37" s="32"/>
+      <c r="N37" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="49" t="s">
+      <c r="O37" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="P37" s="52" t="s">
+      <c r="P37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="52">
+      <c r="Q37" s="31">
         <v>6</v>
       </c>
-      <c r="R37" s="52" t="s">
+      <c r="R37" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S37" s="53" t="s">
+      <c r="S37" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T37" s="54" t="s">
+      <c r="T37" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="U37" s="52" t="s">
+      <c r="U37" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="V37" s="56" t="s">
+      <c r="V37" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="W37" s="55">
+      <c r="W37" s="34">
         <v>42414</v>
       </c>
-      <c r="X37" s="27">
+      <c r="X37" s="34">
         <v>42414</v>
       </c>
     </row>
@@ -4306,50 +4308,50 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="49" t="s">
+      <c r="G38" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="52">
+      <c r="H38" s="47">
         <v>36</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="49" t="s">
+      <c r="J38" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="K38" s="51" t="s">
+      <c r="K38" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="51" t="s">
+      <c r="L38" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51" t="s">
+      <c r="M38" s="46"/>
+      <c r="N38" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="49" t="s">
+      <c r="O38" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="52" t="s">
+      <c r="P38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="52">
+      <c r="Q38" s="47">
         <v>6</v>
       </c>
-      <c r="R38" s="52" t="s">
+      <c r="R38" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="S38" s="53" t="s">
+      <c r="S38" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="T38" s="54" t="s">
+      <c r="T38" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="U38" s="52" t="s">
+      <c r="U38" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="V38" s="56" t="s">
+      <c r="V38" s="51" t="s">
         <v>251</v>
       </c>
       <c r="W38" s="34">
@@ -4432,12 +4434,12 @@
       <c r="R41" s="13"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="45" t="s">
+      <c r="U41" s="37"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="X41" s="46" t="s">
+      <c r="X41" s="41" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4462,14 +4464,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="47" t="s">
+      <c r="U42" s="38"/>
+      <c r="V42" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="W42" s="45" t="s">
+      <c r="W42" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="X42" s="48" t="s">
+      <c r="X42" s="43" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5530,12 +5532,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5550,6 +5546,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5609,58 +5611,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="87" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="82" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="91"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="87"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="52">
         <v>10</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53">
         <v>42394</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="35">
         <v>30</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -5668,12 +5670,12 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="58">
+      <c r="H6" s="53">
         <v>42410</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
@@ -5687,16 +5689,16 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="53">
         <v>42412</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="35">
         <v>50</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -5706,12 +5708,12 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="53">
         <v>42412</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
@@ -5725,12 +5727,12 @@
       <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="53">
         <v>42414</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
@@ -5744,16 +5746,16 @@
       <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="53">
         <v>42414</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="35">
         <v>350</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -5763,12 +5765,12 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="53">
         <v>42414</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="59"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="11" t="s">
         <v>264</v>
       </c>
@@ -5782,12 +5784,12 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="53">
         <v>42414</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="11" t="s">
         <v>129</v>
       </c>
@@ -5801,12 +5803,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="58">
+      <c r="H13" s="53">
         <v>42416</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
@@ -5820,16 +5822,16 @@
         <v>54</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="58">
+      <c r="H14" s="53">
         <v>42416</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="59"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="35">
         <v>310</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -5839,7 +5841,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="58">
+      <c r="H15" s="53">
         <v>42419</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1323,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1427,9 +1427,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,40 +1454,29 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,6 +1518,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1555,19 +1565,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1875,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,65 +1906,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="57" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="78" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1981,31 +1978,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="74"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="79"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2023,43 +2020,43 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="56">
         <v>1</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="93">
+      <c r="Q3" s="59">
         <v>10</v>
       </c>
-      <c r="R3" s="93" t="s">
+      <c r="R3" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="94" t="s">
+      <c r="S3" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="94" t="s">
+      <c r="T3" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="U3" s="93" t="s">
+      <c r="U3" s="59" t="s">
         <v>217</v>
       </c>
       <c r="V3" s="24" t="s">
@@ -2090,44 +2087,44 @@
       <c r="G4" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>2</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46" t="s">
+      <c r="M4" s="45"/>
+      <c r="N4" s="45" t="s">
         <v>33</v>
       </c>
       <c r="O4" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="46">
         <v>6</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="U4" s="46" t="s">
         <v>192</v>
       </c>
       <c r="V4" s="24" t="s">
@@ -2188,7 +2185,7 @@
       <c r="S5" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="56" t="s">
+      <c r="T5" s="55" t="s">
         <v>202</v>
       </c>
       <c r="U5" s="31" t="s">
@@ -2222,44 +2219,44 @@
       <c r="G6" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>4</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="45"/>
       <c r="O6" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="46">
         <v>6</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="48" t="s">
+      <c r="S6" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="47" t="s">
+      <c r="U6" s="46" t="s">
         <v>198</v>
       </c>
       <c r="V6" s="24" t="s">
@@ -2285,56 +2282,56 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="29">
         <v>5</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="47" t="s">
+      <c r="P7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="31">
         <v>6</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S7" s="48" t="s">
+      <c r="S7" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="49" t="s">
+      <c r="T7" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W7" s="50">
+      <c r="W7" s="34">
         <v>42412</v>
       </c>
-      <c r="X7" s="27">
+      <c r="X7" s="34">
         <v>42412</v>
       </c>
     </row>
@@ -2355,47 +2352,47 @@
         <v>135</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="31">
         <v>6</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="47" t="s">
+      <c r="P8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="31">
         <v>6</v>
       </c>
-      <c r="R8" s="47" t="s">
+      <c r="R8" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S8" s="48" t="s">
+      <c r="S8" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="49" t="s">
+      <c r="T8" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="47" t="s">
+      <c r="U8" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V8" s="24" t="s">
@@ -2404,7 +2401,7 @@
       <c r="W8" s="34">
         <v>42414</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="34">
         <v>42414</v>
       </c>
     </row>
@@ -3408,44 +3405,44 @@
       <c r="G24" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="46">
         <v>22</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="45" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46" t="s">
+      <c r="M24" s="45"/>
+      <c r="N24" s="45" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="P24" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="47">
+      <c r="Q24" s="46">
         <v>6</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="48" t="s">
+      <c r="S24" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="49" t="s">
+      <c r="T24" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="U24" s="47" t="s">
+      <c r="U24" s="46" t="s">
         <v>192</v>
       </c>
       <c r="V24" s="24" t="s">
@@ -3796,44 +3793,44 @@
       <c r="G30" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="46">
         <v>28</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="45" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="L30" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="46"/>
+      <c r="N30" s="45"/>
       <c r="O30" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="47" t="s">
+      <c r="P30" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="46">
         <v>6</v>
       </c>
-      <c r="R30" s="47" t="s">
+      <c r="R30" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="S30" s="48" t="s">
+      <c r="S30" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="T30" s="49" t="s">
+      <c r="T30" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="U30" s="47" t="s">
+      <c r="U30" s="46" t="s">
         <v>198</v>
       </c>
       <c r="V30" s="24" t="s">
@@ -4026,7 +4023,7 @@
       <c r="S33" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T33" s="56" t="s">
+      <c r="T33" s="55" t="s">
         <v>225</v>
       </c>
       <c r="U33" s="31" t="s">
@@ -4035,7 +4032,7 @@
       <c r="V33" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W33" s="50">
+      <c r="W33" s="49">
         <v>42431</v>
       </c>
       <c r="X33" s="34">
@@ -4277,13 +4274,13 @@
       <c r="S37" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T37" s="56" t="s">
+      <c r="T37" s="55" t="s">
         <v>191</v>
       </c>
       <c r="U37" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="V37" s="51" t="s">
+      <c r="V37" s="50" t="s">
         <v>251</v>
       </c>
       <c r="W37" s="34">
@@ -4311,47 +4308,47 @@
       <c r="G38" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="46">
         <v>36</v>
       </c>
-      <c r="I38" s="46" t="s">
+      <c r="I38" s="45" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="K38" s="46" t="s">
+      <c r="K38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="46" t="s">
+      <c r="L38" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46" t="s">
+      <c r="M38" s="45"/>
+      <c r="N38" s="45" t="s">
         <v>52</v>
       </c>
       <c r="O38" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="47" t="s">
+      <c r="P38" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="47">
+      <c r="Q38" s="46">
         <v>6</v>
       </c>
-      <c r="R38" s="47" t="s">
+      <c r="R38" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="S38" s="48" t="s">
+      <c r="S38" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="T38" s="49" t="s">
+      <c r="T38" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="U38" s="47" t="s">
+      <c r="U38" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="V38" s="51" t="s">
+      <c r="V38" s="50" t="s">
         <v>251</v>
       </c>
       <c r="W38" s="34">
@@ -5532,6 +5529,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5546,12 +5549,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5611,54 +5608,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="82" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="86" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="86"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="51">
         <v>10</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52">
         <v>42394</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
@@ -5670,12 +5667,12 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <v>42410</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
@@ -5689,12 +5686,12 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="52">
         <v>42412</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="11" t="s">
         <v>259</v>
       </c>
@@ -5708,12 +5705,12 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="52">
         <v>42412</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
@@ -5727,12 +5724,12 @@
       <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <v>42414</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
@@ -5746,12 +5743,12 @@
       <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="52">
         <v>42414</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
@@ -5765,12 +5762,12 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="52">
         <v>42414</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="11" t="s">
         <v>264</v>
       </c>
@@ -5784,12 +5781,12 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="52">
         <v>42414</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="11" t="s">
         <v>129</v>
       </c>
@@ -5803,12 +5800,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="53">
+      <c r="H13" s="52">
         <v>42416</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
@@ -5822,12 +5819,12 @@
         <v>54</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="53">
+      <c r="H14" s="52">
         <v>42416</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
@@ -5841,7 +5838,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="53">
+      <c r="H15" s="52">
         <v>42419</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -931,13 +931,13 @@
     <t>Clara Melo</t>
   </si>
   <si>
-    <t>toca con imágenes</t>
-  </si>
-  <si>
     <t>Fecha envío de solicitud gráfica</t>
   </si>
   <si>
     <t>Número recurso</t>
+  </si>
+  <si>
+    <t>falta una imagen</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1439,7 +1439,6 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1467,16 +1466,40 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,30 +1539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1872,9 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,65 +1905,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="82" t="s">
+      <c r="S1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="T1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="62" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1978,31 +1977,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="70"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="79"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2020,43 +2019,43 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="55">
         <v>1</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58" t="s">
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="59">
+      <c r="Q3" s="58">
         <v>10</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="U3" s="59" t="s">
+      <c r="U3" s="58" t="s">
         <v>217</v>
       </c>
       <c r="V3" s="24" t="s">
@@ -2084,47 +2083,47 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="31">
         <v>2</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="31">
         <v>6</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V4" s="24" t="s">
@@ -2133,7 +2132,7 @@
       <c r="W4" s="34">
         <v>42412</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="34">
         <v>42412</v>
       </c>
     </row>
@@ -2185,7 +2184,7 @@
       <c r="S5" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="54" t="s">
         <v>202</v>
       </c>
       <c r="U5" s="31" t="s">
@@ -2319,7 +2318,7 @@
       <c r="S7" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="T7" s="54" t="s">
         <v>191</v>
       </c>
       <c r="U7" s="31" t="s">
@@ -2389,7 +2388,7 @@
       <c r="S8" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="T8" s="54" t="s">
         <v>199</v>
       </c>
       <c r="U8" s="31" t="s">
@@ -3836,9 +3835,7 @@
       <c r="V30" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="W30" s="1"/>
       <c r="X30" s="27">
         <v>42416</v>
       </c>
@@ -4023,7 +4020,7 @@
       <c r="S33" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="T33" s="55" t="s">
+      <c r="T33" s="54" t="s">
         <v>225</v>
       </c>
       <c r="U33" s="31" t="s">
@@ -4032,7 +4029,7 @@
       <c r="V33" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W33" s="49">
+      <c r="W33" s="34">
         <v>42431</v>
       </c>
       <c r="X33" s="34">
@@ -4274,13 +4271,13 @@
       <c r="S37" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T37" s="55" t="s">
+      <c r="T37" s="54" t="s">
         <v>191</v>
       </c>
       <c r="U37" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="V37" s="50" t="s">
+      <c r="V37" s="49" t="s">
         <v>251</v>
       </c>
       <c r="W37" s="34">
@@ -4348,7 +4345,7 @@
       <c r="U38" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="V38" s="50" t="s">
+      <c r="V38" s="49" t="s">
         <v>251</v>
       </c>
       <c r="W38" s="34">
@@ -4356,6 +4353,9 @@
       </c>
       <c r="X38" s="27">
         <v>42414</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -5529,12 +5529,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5549,6 +5543,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5608,54 +5608,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86" t="s">
-        <v>267</v>
+      <c r="G3" s="87"/>
+      <c r="H3" s="85" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="90"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="50">
         <v>10</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51">
         <v>42394</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
@@ -5667,12 +5667,12 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>42410</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
@@ -5686,12 +5686,12 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <v>42412</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="11" t="s">
         <v>259</v>
       </c>
@@ -5705,12 +5705,12 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="51">
         <v>42412</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
@@ -5724,12 +5724,12 @@
       <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="51">
         <v>42414</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
@@ -5743,12 +5743,12 @@
       <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="51">
         <v>42414</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
@@ -5762,12 +5762,12 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="51">
         <v>42414</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="11" t="s">
         <v>264</v>
       </c>
@@ -5781,12 +5781,12 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="51">
         <v>42414</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="11" t="s">
         <v>129</v>
       </c>
@@ -5800,12 +5800,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="52">
+      <c r="H13" s="51">
         <v>42416</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
@@ -5819,12 +5819,12 @@
         <v>54</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="52">
+      <c r="H14" s="51">
         <v>42416</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <v>42419</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1466,40 +1466,16 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,6 +1515,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1873,7 +1873,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W30" sqref="W30"/>
+      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,65 +1905,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="77" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1977,31 +1977,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="77"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3401,47 +3401,47 @@
         <v>135</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="31">
         <v>22</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="45" t="s">
+      <c r="L24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45" t="s">
+      <c r="M24" s="32"/>
+      <c r="N24" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="46" t="s">
+      <c r="P24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="31">
         <v>6</v>
       </c>
-      <c r="R24" s="46" t="s">
+      <c r="R24" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="47" t="s">
+      <c r="S24" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="48" t="s">
+      <c r="T24" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="U24" s="46" t="s">
+      <c r="U24" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V24" s="24" t="s">
@@ -3450,7 +3450,7 @@
       <c r="W24" s="34">
         <v>42414</v>
       </c>
-      <c r="X24" s="27">
+      <c r="X24" s="34">
         <v>42414</v>
       </c>
     </row>
@@ -5529,6 +5529,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5543,12 +5549,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1871,9 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1466,16 +1466,40 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,30 +1539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1873,7 +1873,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,65 +1905,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="62" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1977,31 +1977,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="78"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -5529,12 +5529,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5549,6 +5543,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="270">
   <si>
     <t>Asignatura</t>
   </si>
@@ -937,7 +937,10 @@
     <t>Número recurso</t>
   </si>
   <si>
-    <t>falta una imagen</t>
+    <t>faltan imágenes de la 1 a la 7</t>
+  </si>
+  <si>
+    <t>falta la imagen 17</t>
   </si>
 </sst>
 </file>
@@ -1466,40 +1469,16 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,6 +1518,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,9 +1874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,65 +1908,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="77" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1977,31 +1980,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="77"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2265,6 +2268,9 @@
       <c r="X6" s="27">
         <v>42416</v>
       </c>
+      <c r="Y6" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -3838,6 +3844,9 @@
       <c r="W30" s="1"/>
       <c r="X30" s="27">
         <v>42416</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4302,47 +4311,47 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="31">
         <v>36</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="44" t="s">
+      <c r="J38" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="K38" s="45" t="s">
+      <c r="K38" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="45" t="s">
+      <c r="L38" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45" t="s">
+      <c r="M38" s="32"/>
+      <c r="N38" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="44" t="s">
+      <c r="O38" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="46" t="s">
+      <c r="P38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="31">
         <v>6</v>
       </c>
-      <c r="R38" s="46" t="s">
+      <c r="R38" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="S38" s="47" t="s">
+      <c r="S38" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="T38" s="48" t="s">
+      <c r="T38" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="U38" s="46" t="s">
+      <c r="U38" s="31" t="s">
         <v>192</v>
       </c>
       <c r="V38" s="49" t="s">
@@ -4351,11 +4360,8 @@
       <c r="W38" s="34">
         <v>42415</v>
       </c>
-      <c r="X38" s="27">
+      <c r="X38" s="34">
         <v>42414</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -5529,6 +5535,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5543,12 +5555,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="270">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1469,16 +1469,40 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,30 +1542,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1874,9 +1874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,65 +1908,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="62" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1980,31 +1980,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="78"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="63"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -5535,12 +5535,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5555,6 +5549,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1469,40 +1469,16 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,6 +1518,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,7 +1876,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,65 +1908,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="60" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="77" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1980,31 +1980,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="77"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3795,54 +3795,56 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="31">
         <v>28</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="J30" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="44" t="s">
+      <c r="N30" s="32"/>
+      <c r="O30" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="46" t="s">
+      <c r="P30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="31">
         <v>6</v>
       </c>
-      <c r="R30" s="46" t="s">
+      <c r="R30" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="S30" s="47" t="s">
+      <c r="S30" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="T30" s="48" t="s">
+      <c r="T30" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="U30" s="46" t="s">
+      <c r="U30" s="31" t="s">
         <v>198</v>
       </c>
       <c r="V30" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="W30" s="1"/>
-      <c r="X30" s="27">
+      <c r="W30" s="34">
+        <v>42434</v>
+      </c>
+      <c r="X30" s="34">
         <v>42416</v>
       </c>
       <c r="Y30" t="s">
@@ -5535,6 +5537,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5549,12 +5557,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -937,10 +937,10 @@
     <t>Número recurso</t>
   </si>
   <si>
-    <t>faltan imágenes de la 1 a la 7</t>
-  </si>
-  <si>
     <t>falta la imagen 17</t>
+  </si>
+  <si>
+    <t>Falta la imagen1</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1388,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1429,19 +1428,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1469,16 +1455,40 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,30 +1530,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1567,6 +1553,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1876,7 +1876,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="U6" sqref="G6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,65 +1908,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="56" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1980,31 +1980,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="78"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="57"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2022,52 +2022,52 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="49">
         <v>1</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57" t="s">
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="52">
         <v>10</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="U3" s="58" t="s">
+      <c r="U3" s="52" t="s">
         <v>217</v>
       </c>
       <c r="V3" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="33">
         <v>42394</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="33">
         <v>42394</v>
       </c>
     </row>
@@ -2086,56 +2086,56 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>2</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="30">
         <v>6</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V4" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="33">
         <v>42412</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X4" s="33">
         <v>42412</v>
       </c>
     </row>
@@ -2154,52 +2154,52 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>3</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31" t="s">
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <v>6</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="30" t="s">
         <v>194</v>
       </c>
       <c r="V5" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="33">
         <v>42412</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="33">
         <v>42410</v>
       </c>
     </row>
@@ -2218,58 +2218,60 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="89">
         <v>4</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44" t="s">
+      <c r="N6" s="90"/>
+      <c r="O6" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="P6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="89">
         <v>6</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="S6" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="48" t="s">
+      <c r="T6" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="46" t="s">
+      <c r="U6" s="89" t="s">
         <v>198</v>
       </c>
       <c r="V6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="27">
+      <c r="W6" s="87">
+        <v>42435</v>
+      </c>
+      <c r="X6" s="33">
         <v>42416</v>
       </c>
       <c r="Y6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -2287,56 +2289,56 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <v>5</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <v>6</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="S7" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="54" t="s">
+      <c r="T7" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="U7" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="33">
         <v>42412</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="33">
         <v>42412</v>
       </c>
     </row>
@@ -2357,56 +2359,56 @@
         <v>135</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <v>6</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32" t="s">
+      <c r="M8" s="31"/>
+      <c r="N8" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <v>6</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S8" s="33" t="s">
+      <c r="S8" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="54" t="s">
+      <c r="T8" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="31" t="s">
+      <c r="U8" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V8" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="33">
         <v>42414</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="33">
         <v>42414</v>
       </c>
     </row>
@@ -2425,54 +2427,54 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <v>7</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="30" t="s">
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="30">
         <v>10</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S9" s="33" t="s">
+      <c r="S9" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T9" s="33" t="s">
+      <c r="T9" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="30" t="s">
         <v>183</v>
       </c>
       <c r="V9" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="27" t="s">
         <v>247</v>
       </c>
       <c r="AB9" s="25"/>
@@ -2492,54 +2494,54 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <v>8</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="30" t="s">
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="30">
         <v>10</v>
       </c>
-      <c r="R10" s="31" t="s">
+      <c r="R10" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="S10" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T10" s="33" t="s">
+      <c r="T10" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="U10" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V10" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="X10" s="28" t="s">
+      <c r="X10" s="27" t="s">
         <v>247</v>
       </c>
       <c r="Y10" t="s">
@@ -2562,49 +2564,49 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>9</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31" t="s">
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>10</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T11" s="33" t="s">
+      <c r="T11" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="30" t="s">
         <v>217</v>
       </c>
       <c r="V11" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="33">
         <v>42395</v>
       </c>
       <c r="X11" t="s">
@@ -2626,49 +2628,49 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <v>10</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31" t="s">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="30">
         <v>10</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="S12" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T12" s="33" t="s">
+      <c r="T12" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V12" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="33">
         <v>42761</v>
       </c>
       <c r="X12" t="s">
@@ -2690,43 +2692,43 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="28">
         <v>11</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31" t="s">
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="30">
         <v>10</v>
       </c>
-      <c r="R13" s="31" t="s">
+      <c r="R13" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="S13" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T13" s="33" t="s">
+      <c r="T13" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="U13" s="31" t="s">
+      <c r="U13" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V13" s="24" t="s">
@@ -2757,49 +2759,49 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>12</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31" t="s">
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <v>10</v>
       </c>
-      <c r="R14" s="31" t="s">
+      <c r="R14" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="S14" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T14" s="33" t="s">
+      <c r="T14" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="U14" s="31" t="s">
+      <c r="U14" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V14" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="33">
         <v>42395</v>
       </c>
       <c r="X14" t="s">
@@ -2821,49 +2823,49 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <v>13</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="30">
         <v>10</v>
       </c>
-      <c r="R15" s="31" t="s">
+      <c r="R15" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="S15" s="33" t="s">
+      <c r="S15" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="30" t="s">
         <v>217</v>
       </c>
       <c r="V15" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="33">
         <v>42395</v>
       </c>
       <c r="X15" t="s">
@@ -2885,49 +2887,49 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <v>14</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31" t="s">
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="30">
         <v>10</v>
       </c>
-      <c r="R16" s="31" t="s">
+      <c r="R16" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="U16" s="31" t="s">
+      <c r="U16" s="30" t="s">
         <v>219</v>
       </c>
       <c r="V16" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="33">
         <v>42395</v>
       </c>
       <c r="X16" t="s">
@@ -2949,49 +2951,49 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="28">
         <v>15</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31" t="s">
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <v>10</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="S17" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="U17" s="31" t="s">
+      <c r="U17" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V17" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W17" s="34">
+      <c r="W17" s="33">
         <v>42395</v>
       </c>
       <c r="X17" t="s">
@@ -3013,43 +3015,43 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="30">
         <v>16</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31" t="s">
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="30">
         <v>10</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T18" s="33" t="s">
+      <c r="T18" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="U18" s="31" t="s">
+      <c r="U18" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V18" s="24" t="s">
@@ -3080,43 +3082,43 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="28">
         <v>17</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31" t="s">
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="30">
         <v>10</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="S19" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="U19" s="31" t="s">
+      <c r="U19" s="30" t="s">
         <v>219</v>
       </c>
       <c r="V19" s="24" t="s">
@@ -3147,49 +3149,49 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="30">
         <v>18</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31" t="s">
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="30">
         <v>10</v>
       </c>
-      <c r="R20" s="31" t="s">
+      <c r="R20" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T20" s="33" t="s">
+      <c r="T20" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="U20" s="31" t="s">
+      <c r="U20" s="30" t="s">
         <v>219</v>
       </c>
       <c r="V20" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20" s="33">
         <v>42395</v>
       </c>
       <c r="X20" t="s">
@@ -3211,49 +3213,49 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <v>19</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31" t="s">
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="30">
         <v>10</v>
       </c>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S21" s="33" t="s">
+      <c r="S21" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T21" s="33" t="s">
+      <c r="T21" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="U21" s="31" t="s">
+      <c r="U21" s="30" t="s">
         <v>219</v>
       </c>
       <c r="V21" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="33">
         <v>42395</v>
       </c>
       <c r="X21" t="s">
@@ -3275,51 +3277,51 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="30">
         <v>20</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="30" t="s">
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="30">
         <v>10</v>
       </c>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="S22" s="33" t="s">
+      <c r="S22" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="U22" s="31" t="s">
+      <c r="U22" s="30" t="s">
         <v>219</v>
       </c>
       <c r="V22" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W22" s="34">
+      <c r="W22" s="33">
         <v>42395</v>
       </c>
       <c r="X22" t="s">
@@ -3341,49 +3343,49 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>21</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31" t="s">
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="30">
         <v>10</v>
       </c>
-      <c r="R23" s="31" t="s">
+      <c r="R23" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S23" s="33" t="s">
+      <c r="S23" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T23" s="33" t="s">
+      <c r="T23" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="U23" s="31" t="s">
+      <c r="U23" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V23" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W23" s="34">
+      <c r="W23" s="33">
         <v>42401</v>
       </c>
       <c r="X23" t="s">
@@ -3407,56 +3409,56 @@
         <v>135</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <v>22</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32" t="s">
+      <c r="M24" s="31"/>
+      <c r="N24" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="30" t="s">
+      <c r="O24" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="30">
         <v>6</v>
       </c>
-      <c r="R24" s="31" t="s">
+      <c r="R24" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="33" t="s">
+      <c r="S24" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="54" t="s">
+      <c r="T24" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="U24" s="31" t="s">
+      <c r="U24" s="30" t="s">
         <v>192</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="W24" s="34">
+      <c r="W24" s="33">
         <v>42414</v>
       </c>
-      <c r="X24" s="34">
+      <c r="X24" s="33">
         <v>42414</v>
       </c>
     </row>
@@ -3475,52 +3477,52 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <v>23</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31" t="s">
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="30">
         <v>10</v>
       </c>
-      <c r="R25" s="31" t="s">
+      <c r="R25" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S25" s="33" t="s">
+      <c r="S25" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T25" s="33" t="s">
+      <c r="T25" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="U25" s="31" t="s">
+      <c r="U25" s="30" t="s">
         <v>183</v>
       </c>
       <c r="V25" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W25" s="28" t="s">
+      <c r="W25" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="X25" s="28" t="s">
+      <c r="X25" s="27" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3539,52 +3541,52 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="30">
         <v>24</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31" t="s">
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="30">
         <v>10</v>
       </c>
-      <c r="R26" s="31" t="s">
+      <c r="R26" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S26" s="33" t="s">
+      <c r="S26" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T26" s="33" t="s">
+      <c r="T26" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="U26" s="31" t="s">
+      <c r="U26" s="30" t="s">
         <v>183</v>
       </c>
       <c r="V26" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W26" s="28" t="s">
+      <c r="W26" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="X26" s="28" t="s">
+      <c r="X26" s="27" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3603,49 +3605,49 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <v>25</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="31" t="s">
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="Q27" s="30">
         <v>10</v>
       </c>
-      <c r="R27" s="31" t="s">
+      <c r="R27" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="S27" s="33" t="s">
+      <c r="S27" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T27" s="33" t="s">
+      <c r="T27" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="U27" s="31" t="s">
+      <c r="U27" s="30" t="s">
         <v>217</v>
       </c>
       <c r="V27" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W27" s="34">
+      <c r="W27" s="33">
         <v>42402</v>
       </c>
       <c r="X27" t="s">
@@ -3667,49 +3669,49 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="30">
         <v>26</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31" t="s">
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="30">
         <v>10</v>
       </c>
-      <c r="R28" s="31" t="s">
+      <c r="R28" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="S28" s="33" t="s">
+      <c r="S28" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T28" s="33" t="s">
+      <c r="T28" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="U28" s="31" t="s">
+      <c r="U28" s="30" t="s">
         <v>217</v>
       </c>
       <c r="V28" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W28" s="34">
+      <c r="W28" s="33">
         <v>42402</v>
       </c>
       <c r="X28" t="s">
@@ -3731,49 +3733,49 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <v>27</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="31" t="s">
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="30">
         <v>10</v>
       </c>
-      <c r="R29" s="31" t="s">
+      <c r="R29" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S29" s="33" t="s">
+      <c r="S29" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T29" s="33" t="s">
+      <c r="T29" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="U29" s="31" t="s">
+      <c r="U29" s="30" t="s">
         <v>183</v>
       </c>
       <c r="V29" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W29" s="34">
+      <c r="W29" s="33">
         <v>42402</v>
       </c>
       <c r="X29" t="s">
@@ -3795,60 +3797,60 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <v>28</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="32" t="s">
+      <c r="M30" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="32"/>
-      <c r="O30" s="30" t="s">
+      <c r="N30" s="31"/>
+      <c r="O30" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="P30" s="31" t="s">
+      <c r="P30" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="30">
         <v>6</v>
       </c>
-      <c r="R30" s="31" t="s">
+      <c r="R30" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="S30" s="33" t="s">
+      <c r="S30" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="T30" s="54" t="s">
+      <c r="T30" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="U30" s="31" t="s">
+      <c r="U30" s="30" t="s">
         <v>198</v>
       </c>
       <c r="V30" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="W30" s="34">
+      <c r="W30" s="33">
         <v>42434</v>
       </c>
-      <c r="X30" s="34">
+      <c r="X30" s="33">
         <v>42416</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -3866,49 +3868,49 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>29</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="31" t="s">
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q31" s="30">
         <v>10</v>
       </c>
-      <c r="R31" s="31" t="s">
+      <c r="R31" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="S31" s="33" t="s">
+      <c r="S31" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T31" s="33" t="s">
+      <c r="T31" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="U31" s="31" t="s">
+      <c r="U31" s="30" t="s">
         <v>217</v>
       </c>
       <c r="V31" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W31" s="34">
+      <c r="W31" s="33">
         <v>42403</v>
       </c>
       <c r="X31" t="s">
@@ -3930,52 +3932,52 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="30">
         <v>30</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="31" t="s">
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="30">
         <v>10</v>
       </c>
-      <c r="R32" s="31" t="s">
+      <c r="R32" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S32" s="33" t="s">
+      <c r="S32" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T32" s="33" t="s">
+      <c r="T32" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="U32" s="31" t="s">
+      <c r="U32" s="30" t="s">
         <v>183</v>
       </c>
       <c r="V32" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W32" s="28" t="s">
+      <c r="W32" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="X32" s="28" t="s">
+      <c r="X32" s="27" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3994,56 +3996,56 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>31</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="32" t="s">
+      <c r="L33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="M33" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="32"/>
-      <c r="O33" s="30" t="s">
+      <c r="N33" s="31"/>
+      <c r="O33" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="P33" s="31" t="s">
+      <c r="P33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="30">
         <v>6</v>
       </c>
-      <c r="R33" s="31" t="s">
+      <c r="R33" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S33" s="33" t="s">
+      <c r="S33" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="T33" s="54" t="s">
+      <c r="T33" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="U33" s="31" t="s">
+      <c r="U33" s="30" t="s">
         <v>194</v>
       </c>
       <c r="V33" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="W33" s="34">
+      <c r="W33" s="33">
         <v>42431</v>
       </c>
-      <c r="X33" s="34">
+      <c r="X33" s="33">
         <v>42419</v>
       </c>
       <c r="Y33" t="s">
@@ -4067,49 +4069,49 @@
         <v>135</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="30">
         <v>32</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="31" t="s">
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="30">
         <v>10</v>
       </c>
-      <c r="R34" s="31" t="s">
+      <c r="R34" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S34" s="33" t="s">
+      <c r="S34" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T34" s="33" t="s">
+      <c r="T34" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="U34" s="31" t="s">
+      <c r="U34" s="30" t="s">
         <v>183</v>
       </c>
       <c r="V34" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="W34" s="34">
+      <c r="W34" s="33">
         <v>42402</v>
       </c>
       <c r="X34" t="s">
@@ -4131,43 +4133,43 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="28">
         <v>33</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="31" t="s">
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="30">
         <v>10</v>
       </c>
-      <c r="R35" s="31" t="s">
+      <c r="R35" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="S35" s="33" t="s">
+      <c r="S35" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="T35" s="33" t="s">
+      <c r="T35" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="U35" s="30" t="s">
         <v>214</v>
       </c>
       <c r="V35" s="24" t="s">
@@ -4195,37 +4197,37 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="30">
         <v>34</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="K36" s="32" t="s">
+      <c r="K36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="32" t="s">
+      <c r="L36" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="31" t="s">
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
       <c r="X36" t="s">
         <v>247</v>
       </c>
@@ -4245,56 +4247,56 @@
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>35</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="32" t="s">
+      <c r="L37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32" t="s">
+      <c r="M37" s="31"/>
+      <c r="N37" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="30" t="s">
+      <c r="O37" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="P37" s="31" t="s">
+      <c r="P37" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="31">
+      <c r="Q37" s="30">
         <v>6</v>
       </c>
-      <c r="R37" s="31" t="s">
+      <c r="R37" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S37" s="33" t="s">
+      <c r="S37" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="T37" s="54" t="s">
+      <c r="T37" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="U37" s="31" t="s">
+      <c r="U37" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="V37" s="49" t="s">
+      <c r="V37" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="W37" s="34">
+      <c r="W37" s="33">
         <v>42414</v>
       </c>
-      <c r="X37" s="34">
+      <c r="X37" s="33">
         <v>42414</v>
       </c>
     </row>
@@ -4313,56 +4315,56 @@
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="30">
         <v>36</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="K38" s="32" t="s">
+      <c r="K38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="32" t="s">
+      <c r="L38" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32" t="s">
+      <c r="M38" s="31"/>
+      <c r="N38" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="30" t="s">
+      <c r="O38" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="P38" s="31" t="s">
+      <c r="P38" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="30">
         <v>6</v>
       </c>
-      <c r="R38" s="31" t="s">
+      <c r="R38" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="S38" s="33" t="s">
+      <c r="S38" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="T38" s="54" t="s">
+      <c r="T38" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="U38" s="31" t="s">
+      <c r="U38" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="V38" s="49" t="s">
+      <c r="V38" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="W38" s="34">
+      <c r="W38" s="33">
         <v>42415</v>
       </c>
-      <c r="X38" s="34">
+      <c r="X38" s="33">
         <v>42414</v>
       </c>
     </row>
@@ -4439,12 +4441,12 @@
       <c r="R41" s="13"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="40" t="s">
+      <c r="U41" s="36"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="X41" s="41" t="s">
+      <c r="X41" s="40" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4469,14 +4471,14 @@
       <c r="R42" s="11"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="42" t="s">
+      <c r="U42" s="37"/>
+      <c r="V42" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="W42" s="40" t="s">
+      <c r="W42" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="X42" s="43" t="s">
+      <c r="X42" s="42" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5537,12 +5539,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5557,6 +5553,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5616,58 +5618,58 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="85" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="79" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="89"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="44">
         <v>10</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45">
         <v>42394</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>30</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -5675,12 +5677,12 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="51">
+      <c r="H6" s="45">
         <v>42410</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
@@ -5694,16 +5696,16 @@
       <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="45">
         <v>42412</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>50</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -5713,12 +5715,12 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="45">
         <v>42412</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
       </c>
@@ -5732,12 +5734,12 @@
       <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="45">
         <v>42414</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
@@ -5751,16 +5753,16 @@
       <c r="G10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="45">
         <v>42414</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>350</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -5770,12 +5772,12 @@
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="45">
         <v>42414</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="11" t="s">
         <v>264</v>
       </c>
@@ -5789,12 +5791,12 @@
       <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="45">
         <v>42414</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="11" t="s">
         <v>129</v>
       </c>
@@ -5808,12 +5810,12 @@
         <v>53</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="51">
+      <c r="H13" s="45">
         <v>42416</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="11" t="s">
         <v>167</v>
       </c>
@@ -5827,16 +5829,16 @@
         <v>54</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="51">
+      <c r="H14" s="45">
         <v>42416</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>310</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -5846,7 +5848,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="51">
+      <c r="H15" s="45">
         <v>42419</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="269">
   <si>
     <t>Asignatura</t>
   </si>
@@ -935,9 +935,6 @@
   </si>
   <si>
     <t>Número recurso</t>
-  </si>
-  <si>
-    <t>falta la imagen 17</t>
   </si>
   <si>
     <t>Falta la imagen1</t>
@@ -1455,40 +1452,30 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,6 +1517,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1553,20 +1564,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,9 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="G6:U6"/>
+      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,65 +1905,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="70" t="s">
+      <c r="L1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="54" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="77" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1980,31 +1977,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="71"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="57"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2218,60 +2215,60 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="56">
         <v>4</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="90" t="s">
+      <c r="L6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="88" t="s">
+      <c r="N6" s="57"/>
+      <c r="O6" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="89">
+      <c r="Q6" s="56">
         <v>6</v>
       </c>
-      <c r="R6" s="89" t="s">
+      <c r="R6" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="92" t="s">
+      <c r="T6" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="56" t="s">
         <v>198</v>
       </c>
       <c r="V6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="W6" s="87">
+      <c r="W6" s="54">
         <v>42435</v>
       </c>
       <c r="X6" s="33">
         <v>42416</v>
       </c>
       <c r="Y6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -3848,9 +3845,6 @@
       </c>
       <c r="X30" s="33">
         <v>42416</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -5539,6 +5533,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5553,12 +5553,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5618,34 +5612,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="79" t="s">
+      <c r="G3" s="87"/>
+      <c r="H3" s="85" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="83"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="79"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_MA_08_07_CO.xlsx
@@ -1323,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1452,30 +1452,40 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,30 +1525,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,9 +1857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomLeft" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,65 +1891,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="Q1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="U1" s="56" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -1977,31 +1963,31 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="78"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="57"/>
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2215,53 +2201,53 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="30">
         <v>4</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="55" t="s">
+      <c r="N6" s="31"/>
+      <c r="O6" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="56" t="s">
+      <c r="P6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="56">
+      <c r="Q6" s="30">
         <v>6</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="58" t="s">
+      <c r="S6" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="59" t="s">
+      <c r="T6" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="30" t="s">
         <v>198</v>
       </c>
       <c r="V6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="W6" s="54">
+      <c r="W6" s="33">
         <v>42435</v>
       </c>
       <c r="X6" s="33">
@@ -5533,12 +5519,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5553,6 +5533,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5612,34 +5598,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="85" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="79" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="89"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
